--- a/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -284,13 +284,7 @@
     <t>Moderne wiskunde 11e editie, wiskunde C, deel vwo 5 H2 Statistiek H4 Toevalsvariabelen H7 Binomiale verdeling, Systematisch tellen Vaardigheden</t>
   </si>
   <si>
-    <t>A1, A2, A3, E1, E2, E3, E4, E5</t>
-  </si>
-  <si>
     <t>Wiskunde Alympiade</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, H</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde C, deel vwo 5 H6 Rijen en recursie. H8. Uit de geschiedenis van de wiskunde. Vaardigheden</t>
@@ -302,22 +296,13 @@
     <t>Statistisch onderzoek</t>
   </si>
   <si>
-    <t>A1, A2, A3, E1, E2, E3, E4, E5, E6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bij de schriftelijke toetsen vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel.			</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde C, deel vwo 6, de hoofdstukken 1 en 4. Vaardigheden. Normale verdelingen. Verbanden. Veranderingen. Vaardigheden.</t>
   </si>
   <si>
-    <t>A1, A2, A3, E1, E2, E3, E4, E5, rekenen</t>
-  </si>
-  <si>
     <t>Moderne wiskunde 11e editie, wiskunde C, deel vwo 5, hoofdstuk 6 en deel vwo 6, de hoofdstukken 3 en 4. Vaardigheden. Vorm en ruimte.  Rijen. Verbanden. Vaardigheden.</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, rekenen</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde C, deel vwo 6, de hoofdstukken 2 en 4, en de syllabus Logisch redeneren. Vaardigheden. Logisch redeneren. Combinatoriek. Verbanden. Vaardigheden.</t>
@@ -1367,9 +1352,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1403,9 +1386,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1439,9 +1420,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1476,9 +1455,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1486,7 +1463,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1513,9 +1490,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1550,9 +1525,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -2368,7 +2341,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2542,9 +2515,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2574,9 +2545,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2585,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="27">
         <v>1</v>
@@ -2606,9 +2575,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2617,7 +2584,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I21" s="27">
         <v>2</v>
@@ -2638,9 +2605,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2649,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I22" s="27">
         <v>2</v>
@@ -2666,9 +2631,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32">
-        <v>0</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -2677,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I23" s="27">
         <v>1</v>
@@ -2696,9 +2659,7 @@
       <c r="O23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="32" t="s">
-        <v>91</v>
-      </c>
+      <c r="P23" s="32"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
@@ -2718,7 +2679,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3286,7 +3247,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3646,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3665,9 +3626,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>94</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3676,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3695,9 +3654,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>96</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3706,7 +3663,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3725,9 +3682,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>96</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3813,7 +3768,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4166,7 +4121,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5121,7 +5076,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5937,7 +5892,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6753,7 +6708,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7579,7 +7534,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8445,7 +8400,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9301,7 +9256,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
@@ -266,7 +266,7 @@
     <t>Hoofdstuk 4 (Machtsfuncties) + Vaardigheden</t>
   </si>
   <si>
-    <t>Hoofdstuk 4 (Machtsfuncties) + Hoofdstuk 5 (ExponentiÃ«le functies) + Vaardigheden</t>
+    <t>Hoofdstuk 4 (Machtsfuncties) + Hoofdstuk 5 (Exponentiële functies) + Vaardigheden</t>
   </si>
   <si>
     <t>Hoofdstuk 3 (Statistiek) + Hoofdstuk 7 (Kansen) + Vaardigheden</t>
@@ -1327,7 +1327,9 @@
       <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>385</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1361,7 +1363,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>386</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -1395,7 +1399,9 @@
       <c r="B8" s="2">
         <v>118</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>387</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -1430,7 +1436,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>388</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>2</v>
@@ -1463,9 +1471,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>389</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>3</v>
@@ -1500,7 +1510,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>390</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1547,7 +1559,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>292</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1761,7 +1775,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>293</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1966,7 +1982,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>294</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2341,7 +2359,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2413,7 +2431,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>295</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2490,7 +2510,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>391</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2518,7 +2540,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>392</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2548,7 +2572,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>393</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2578,7 +2604,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>394</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>4</v>
@@ -2608,7 +2636,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>395</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>2</v>
@@ -2634,7 +2664,9 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>396</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>4</v>
@@ -2665,7 +2697,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>296</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2872,7 +2906,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>297</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3247,7 +3283,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3319,7 +3355,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>298</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3531,7 +3569,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>299</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3601,7 +3641,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>397</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3629,7 +3671,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>398</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3657,7 +3701,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>399</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3754,7 +3800,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>300</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -4121,7 +4169,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5076,7 +5124,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5892,7 +5940,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6708,7 +6756,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7534,7 +7582,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7606,7 +7654,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>288</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7626,9 +7676,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -7820,7 +7868,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>289</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8400,7 +8450,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8472,7 +8522,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>290</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8684,7 +8736,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>291</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -8697,9 +8751,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9256,7 +9308,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,6 +252,9 @@
     <t>WC</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -284,7 +288,13 @@
     <t>Moderne wiskunde 11e editie, wiskunde C, deel vwo 5 H2 Statistiek H4 Toevalsvariabelen H7 Binomiale verdeling, Systematisch tellen Vaardigheden</t>
   </si>
   <si>
+    <t>A1, A2, A3, E1, E2, E3, E4, E5</t>
+  </si>
+  <si>
     <t>Wiskunde Alympiade</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, H</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde C, deel vwo 5 H6 Rijen en recursie. H8. Uit de geschiedenis van de wiskunde. Vaardigheden</t>
@@ -296,13 +306,22 @@
     <t>Statistisch onderzoek</t>
   </si>
   <si>
+    <t>A1, A2, A3, E1, E2, E3, E4, E5, E6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bij de schriftelijke toetsen vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel.			</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde C, deel vwo 6, de hoofdstukken 1 en 4. Vaardigheden. Normale verdelingen. Verbanden. Veranderingen. Vaardigheden.</t>
   </si>
   <si>
+    <t>A1, A2, A3, E1, E2, E3, E4, E5, rekenen</t>
+  </si>
+  <si>
     <t>Moderne wiskunde 11e editie, wiskunde C, deel vwo 5, hoofdstuk 6 en deel vwo 6, de hoofdstukken 3 en 4. Vaardigheden. Vorm en ruimte.  Rijen. Verbanden. Vaardigheden.</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, rekenen</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie, wiskunde C, deel vwo 6, de hoofdstukken 2 en 4, en de syllabus Logisch redeneren. Vaardigheden. Logisch redeneren. Combinatoriek. Verbanden. Vaardigheden.</t>
@@ -1237,12 +1256,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1264,25 +1283,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WC leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>11</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1324,35 +1339,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2">
-        <v>385</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1360,35 +1365,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>386</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1396,35 +1391,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>118</v>
-      </c>
-      <c r="D8" s="2">
-        <v>387</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>50</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1434,34 +1419,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>2</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="27">
-        <v>3</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1471,34 +1448,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>389</v>
-      </c>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>3</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="27">
-        <v>3</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
+      <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1510,32 +1479,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>390</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="27">
-        <v>3</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1554,17 +1515,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>292</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1579,11 +1538,9 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>82</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1598,7 +1555,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WC leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1775,12 +1732,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>293</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1805,7 +1760,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WC leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1982,12 +1937,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>294</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2061,44 +2014,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2162,7 +2077,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2193,7 +2108,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WC leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>WC leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2245,22 +2160,30 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="D6" s="2">
+        <v>385</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
@@ -2273,22 +2196,30 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>386</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -2301,22 +2232,30 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>119</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="D8" s="2">
+        <v>387</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>50</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -2330,22 +2269,30 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>388</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>2</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
@@ -2359,22 +2306,30 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2">
+        <v>389</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>3</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="27">
+        <v>3</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
@@ -2390,20 +2345,28 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>390</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="27">
+        <v>3</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
@@ -2426,17 +2389,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2451,9 +2414,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -2468,7 +2433,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WC leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>WC leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2510,186 +2475,134 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>391</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>392</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>393</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="27">
-        <v>1</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>394</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="27">
-        <v>2</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>100</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>395</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>2</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="27">
-        <v>2</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>396</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="27">
-        <v>1</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -2698,11 +2611,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2712,9 +2625,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>89</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2729,7 +2640,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WC leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>WC leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2907,11 +2818,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3044,6 +2955,938 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>WC leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>295</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>WC leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>391</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>392</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>393</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="27">
+        <v>1</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>394</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>395</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>2</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="27">
+        <v>2</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>396</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="27">
+        <v>1</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="31">
+        <v>1</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>296</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>WC leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>297</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3169,7 +4012,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3283,7 +4126,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3649,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3666,9 +4509,11 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3679,7 +4524,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3696,9 +4541,11 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3709,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3726,9 +4573,11 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3816,7 +4665,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4169,7 +5018,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5124,7 +5973,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5940,7 +6789,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6564,12 +7413,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6591,6 +7440,871 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>WC leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>115</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>286</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>WC leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>287</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>WC leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6756,7 +8470,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7336,874 +9050,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WC leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>116</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>288</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WC leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>289</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WC leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8253,7 +9099,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8284,7 +9130,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WC leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>WC leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8336,7 +9182,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8364,7 +9210,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -8392,7 +9238,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -8421,7 +9267,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -8450,7 +9296,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8517,17 +9363,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8542,7 +9388,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -8559,7 +9405,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WC leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>WC leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8737,11 +9583,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8766,7 +9612,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WC leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>WC leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -8946,7 +9792,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9116,12 +9962,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9143,21 +9989,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>WC leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>11</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9199,7 +10049,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9225,7 +10077,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9251,7 +10105,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>117</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9279,7 +10135,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9308,7 +10164,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9375,15 +10231,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>290</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9398,7 +10256,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9415,7 +10273,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>WC leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9592,10 +10450,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>291</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9620,7 +10480,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>WC leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9800,7 +10660,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9874,6 +10734,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808946759</v>
+        <v>44341.376331019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2295,7 +2295,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808946759</v>
+        <v>44341.376331019</v>
       </c>
       <c r="D10" s="2">
         <v>389</v>
@@ -3425,7 +3425,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808946759</v>
+        <v>44341.376331019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4567,7 +4567,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808946759</v>
+        <v>44341.376331019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5679,7 +5679,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -97,34 +97,666 @@
     <t>header</t>
   </si>
   <si>
-    <t>niet in oude Excel openen. Op school / in Teams.</t>
-  </si>
-  <si>
-    <t>niet knippen?</t>
-  </si>
-  <si>
-    <t>wat betekent naam tabblad: hoe kun je het zien?</t>
-  </si>
-  <si>
-    <t>donkergroen alleen invullen als SE</t>
-  </si>
-  <si>
-    <t>geen vormgeving doen</t>
-  </si>
-  <si>
-    <t>tijd in minuten, geen toevoeging</t>
-  </si>
-  <si>
-    <t>laat niet relevante dingen open</t>
-  </si>
-  <si>
-    <t>niet formatten. Layouten doen wij.</t>
-  </si>
-  <si>
-    <t>zie je iets waarvan je denkt dat het niet klopt! Mail me.</t>
-  </si>
-  <si>
-    <t>structuur etc. moet nog weer beveiligd!</t>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">INSTRUCTIE </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">graag uw aandacht voor het volgende:</t>
+    </r>
+  </si>
+  <si>
+    <t>Vorig jaar zijn we overgestapt van de invoer van PTA's via Word naar Excel. Dit was een eerste stap in een groter proces waarbij we toewillen naar het werken met volledige PTA-cohorten: PTA's waarin alle leerjaren van een examengroep staan beschreven. Dit nieuwe invoerdocument is een uitwerking daarvan.</t>
+  </si>
+  <si>
+    <t>COHORTEN en COHORTJAREN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In dit document zie je tabbladen met namen als </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">A 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">H 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Dat jaartal slaat op het kalenderjaar waarin een groep start met het schoolexamen (gerekend vanaf mavo-3, havo-4 en VWO-4). Voor </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">A 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> gaat het dus om de atheneum-groep die in het schooljaar </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2019-2020</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in klas 4 zat, in </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2020-2021</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in klas 5 en in </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">2021-2022</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in klas 6. Het volledige </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">cohort</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> is dan de periode 2019-2022. Het betreft hier dus de </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">huidige vwo-5</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Als je klikt op een tabblad wordt dit vermeld.</t>
+    </r>
+  </si>
+  <si>
+    <t>SCHRIJFRECHT en leesrecht: CONTROLE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Voor de </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">huidige vwo-5</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> zijn de leerjaren 4 en 5 van het PTA al voorbij en uitgevoerd. Daarom zijn de bijbehorende velden geblokkeerd. Wij hebben alle informatie van het huidige schooljaar overgenomen in dit nieuwe bestand. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF5B9BD5"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Wil je controleren of de gegevens van het huidige schooljaar juist zijn?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Klopt er iets niet? Stuur dan een mailtje naar VNR. Velden voor het komende schooljaar zijn wel beschrijfbaar. Hier vul je het PTA verder in. Net als vorig jaar verwachten we het </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">volledige onderwijsprogramma</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> voor een leerlaag, dus ook de proefwerken en andere opdrachten die niet voor het schoolexamen gelden. Als service hebben we het cohortjaar dat je voor dit schooljaar had ingevuld gekopieerd naar het PTA voor de nieuwe groep.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">HEEL BELANGRIJK: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">do's &amp; don'ts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lees dit gedeelte echt even goed door. Vorig jaar hebben we veel nawerk gehad door </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">afwijkende invoer</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> in het Excelbestand, niet volledig ingevulde gegevens en niet kloppende gegevens. Allereerst: Open dit bestand niet in een verouderde Excel-versie. Open hem op je schoollaptop of een werkstation op school </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">vanuit Teams</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Download het bestand dus </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">niet</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Dit leidt tot ongewenste dubbelingen en inconsistentie. Let daarnaast bij de over op de volgende punten:</t>
+    </r>
+  </si>
+  <si>
+    <t>overzicht aandachtspunten bij het werken met dit document</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>De groene velden zijn beschrijfbaar. De donkergroene velden hoef je alleen in te vullen als er sprake is van een PTA-onderdeel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wil je iets verplaatsen? Ga alsjeblieft </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFC00000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">niet knippen</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> (geen Ctrl-x). Daarmee verwijder je namelijk ook voor jou onzichtbare onderdelen. In plaats daarvan: het meest veilig is even overschrijven, maar als je toch wilt kopiëren: kies dan in het nieuwe veld voor het </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">plakken van waarden</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> en delete vervolgens de inhoud van de velden die moeten worden geleegd.</t>
+    </r>
+  </si>
+  <si>
+    <t>Vorig jaar hebben secties soms zelf geprobeerd hun PTA te layouten binnen Excel met b.v. spaties. Doe dit niet. Het PTA wordt uiteindelijk als PDF afgedrukt in een andere layout. Zelf aanpassen heeft dus geen zin, maar zorgt wel voor problemen bij de verdere verwerking!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De kolommen </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">weging VD</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">weging SE</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> en </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">duur</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> zijn </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">numeriek</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">. Vul hier alleen getallen in (en dus niet dingen als </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">100 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FFC00000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">min</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">15</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FFC00000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">, etc.)</t>
+    </r>
   </si>
   <si>
     <t>*</t>
@@ -291,7 +923,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -356,13 +988,31 @@
       <name val="Segoe UI"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF44546A"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
     </font>
     <font>
       <b val="0"/>
@@ -401,7 +1051,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,8 +1121,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44546A"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border/>
     <border>
       <left style="medium">
@@ -515,11 +1171,25 @@
         <color rgb="FFA9CD90"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEEAF6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEEAF6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEEAF6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEEAF6"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -613,22 +1283,40 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
@@ -636,11 +1324,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
@@ -648,7 +1336,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
@@ -656,7 +1344,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
@@ -1093,8 +1781,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="235" zoomScaleNormal="235" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="10" zoomScaleNormal="10" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1228,7 +1916,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WOf0LQsboE6wZUxhTrp6vWUPTX/PxW+vApAM6zdPOcGfqvqNuFNYmJEfEBPc31Vp+JEs0x9YELJOz7LGwIuUbA==" saltValue="ss5ASBCr8o3o1bhwu9U1Vw==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="true"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -1248,66 +1936,149 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="235" zoomScaleNormal="235" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="175" zoomScaleNormal="175" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="true" style="8"/>
+    <col min="2" max="2" width="95.140625" customWidth="true" style="8"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="8"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="2" spans="1:3" customHeight="1" ht="74.25">
+      <c r="B2" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="4" spans="1:3" customHeight="1" ht="106.5">
+      <c r="B4" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="6" spans="1:3" customHeight="1" ht="161.25">
+      <c r="B6" s="36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="8" spans="1:3" customHeight="1" ht="107.25">
+      <c r="B8" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="29" t="s">
+    <row r="10" spans="1:3" customHeight="1" ht="34.5">
+      <c r="A10" s="32" t="s">
         <v>34</v>
       </c>
+      <c r="B10" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customHeight="1" ht="67.5" s="30" customFormat="1">
+      <c r="A11" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" customHeight="1" ht="51.75">
+      <c r="A12" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" customHeight="1" ht="34.5">
+      <c r="A13" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="31"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="31"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="31"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="31"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="31"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="31"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="31"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="31"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="31"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="31"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="31"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="31"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="31"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="31"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="31"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mV7BNsQoFesF/gHTqLwFID77XCVLa9wfBt+/qI6NBt8ZJQTq+zXXlgMeU+Yap4FYo3SfLn1U8mRQOMZH2GCMGQ==" saltValue="vl1+j0HvtxTC7FXpJM93Ug==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -1361,147 +2132,147 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33" t="str">
+        <v>41</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="39" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A3 (cohort 2021 - 2024)</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="35" t="str">
+      <c r="F4" s="37"/>
+      <c r="G4" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="36" t="s">
+      <c r="H5" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="I5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="J5" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="K5" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="L5" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="31"/>
+      <c r="M5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="31"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="23" t="s">
         <v>5</v>
       </c>
@@ -1520,18 +2291,18 @@
         <v>5</v>
       </c>
       <c r="P6" s="28"/>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="31"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="23" t="s">
         <v>5</v>
       </c>
@@ -1550,18 +2321,18 @@
         <v>5</v>
       </c>
       <c r="P7" s="28"/>
-      <c r="Q7" s="31"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2">
         <v>213</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="31"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="23" t="s">
         <v>5</v>
       </c>
@@ -1580,11 +2351,11 @@
         <v>5</v>
       </c>
       <c r="P8" s="28"/>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -1592,7 +2363,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="31"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="23" t="s">
         <v>5</v>
       </c>
@@ -1611,19 +2382,19 @@
         <v>5</v>
       </c>
       <c r="P9" s="28"/>
-      <c r="Q9" s="31"/>
+      <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.376331019</v>
+        <v>44341.382349537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="31"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="23" t="s">
         <v>5</v>
       </c>
@@ -1642,11 +2413,11 @@
         <v>5</v>
       </c>
       <c r="P10" s="28"/>
-      <c r="Q10" s="31"/>
+      <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -1654,7 +2425,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="31"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="23" t="s">
         <v>5</v>
       </c>
@@ -1673,626 +2444,626 @@
         <v>5</v>
       </c>
       <c r="P11" s="28"/>
-      <c r="Q11" s="31"/>
+      <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>525</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="38" t="str">
+      <c r="F13" s="37"/>
+      <c r="G13" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="31"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="37"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="35" t="str">
+      <c r="F16" s="37"/>
+      <c r="G16" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="36" t="s">
+      <c r="H17" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="I17" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="J17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="K17" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="L17" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="31"/>
+      <c r="M17" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="31"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="47"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="31"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="49"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="31"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="49"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="31"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="31"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="49"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="31"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="49"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="F24" s="31"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2">
         <v>526</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="38" t="str">
+      <c r="F25" s="37"/>
+      <c r="G25" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="F26" s="31"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="F27" s="31"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="35" t="str">
+      <c r="F28" s="37"/>
+      <c r="G28" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2023 - 2024)</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="36" t="s">
+      <c r="H29" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="I29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="J29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O29" s="36" t="s">
+      <c r="K29" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="40" t="s">
+      <c r="L29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="31"/>
+      <c r="M29" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="43"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="31"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="47"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="49"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="43"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="31"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="47"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="49"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="31"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="47"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="49"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="31"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="47"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="49"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="43"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="31"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="47"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="49"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="37"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="43"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="31"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="49"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="37"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="F36" s="31"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2">
         <v>527</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="38" t="str">
+      <c r="F37" s="37"/>
+      <c r="G37" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2023 - 2024)</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="F38" s="31"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -2441,178 +3212,178 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33" t="str">
+        <v>41</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="39" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="35" t="str">
+      <c r="F4" s="37"/>
+      <c r="G4" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="36" t="s">
+      <c r="H5" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="I5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="J5" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="K5" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="L5" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="31"/>
+      <c r="M5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2">
         <v>385</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="37">
+      <c r="F6" s="37"/>
+      <c r="G6" s="43">
         <v>1</v>
       </c>
-      <c r="H6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="37">
+      <c r="H6" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="43">
         <v>2</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="37">
+      <c r="K6" s="49"/>
+      <c r="L6" s="43">
         <v>50</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="31"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -2621,36 +3392,36 @@
         <v>386</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="37">
+      <c r="F7" s="37"/>
+      <c r="G7" s="43">
         <v>1</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="37">
+      <c r="H7" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="43">
         <v>2</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="37">
+      <c r="K7" s="49"/>
+      <c r="L7" s="43">
         <v>50</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="31"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2">
         <v>118</v>
@@ -2659,36 +3430,36 @@
         <v>387</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="37">
+      <c r="F8" s="37"/>
+      <c r="G8" s="43">
         <v>2</v>
       </c>
-      <c r="H8" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="37">
+      <c r="H8" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="43">
         <v>1</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="37">
+      <c r="K8" s="49"/>
+      <c r="L8" s="43">
         <v>50</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="31"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2698,75 +3469,75 @@
         <v>388</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="37">
+      <c r="F9" s="37"/>
+      <c r="G9" s="43">
         <v>2</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="37">
+      <c r="H9" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="43">
         <v>3</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="37">
+      <c r="K9" s="49"/>
+      <c r="L9" s="43">
         <v>100</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="31"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.376331019</v>
+        <v>44341.382349537</v>
       </c>
       <c r="D10" s="2">
         <v>389</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="37">
+      <c r="F10" s="37"/>
+      <c r="G10" s="43">
         <v>3</v>
       </c>
-      <c r="H10" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="37">
+      <c r="H10" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="43">
         <v>3</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="37">
+      <c r="K10" s="49"/>
+      <c r="L10" s="43">
         <v>100</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="31"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2776,193 +3547,193 @@
         <v>390</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="37">
+      <c r="F11" s="37"/>
+      <c r="G11" s="43">
         <v>4</v>
       </c>
-      <c r="H11" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="37">
+      <c r="H11" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="43">
         <v>3</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="37">
+      <c r="K11" s="49"/>
+      <c r="L11" s="43">
         <v>100</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="31"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>292</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="38" t="str">
+      <c r="F13" s="37"/>
+      <c r="G13" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="35" t="str">
+      <c r="F16" s="37"/>
+      <c r="G16" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="36" t="s">
+      <c r="H17" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="I17" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="J17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="K17" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="L17" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="31"/>
+      <c r="M17" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="31"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="23" t="s">
         <v>5</v>
       </c>
@@ -2981,12 +3752,12 @@
         <v>5</v>
       </c>
       <c r="P18" s="28"/>
-      <c r="Q18" s="31"/>
+      <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="31"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="23" t="s">
         <v>5</v>
       </c>
@@ -3005,12 +3776,12 @@
         <v>5</v>
       </c>
       <c r="P19" s="28"/>
-      <c r="Q19" s="31"/>
+      <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="31"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="23" t="s">
         <v>5</v>
       </c>
@@ -3029,12 +3800,12 @@
         <v>5</v>
       </c>
       <c r="P20" s="28"/>
-      <c r="Q20" s="31"/>
+      <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="31"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="23" t="s">
         <v>5</v>
       </c>
@@ -3053,12 +3824,12 @@
         <v>5</v>
       </c>
       <c r="P21" s="28"/>
-      <c r="Q21" s="31"/>
+      <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="31"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="23" t="s">
         <v>5</v>
       </c>
@@ -3077,12 +3848,12 @@
         <v>5</v>
       </c>
       <c r="P22" s="28"/>
-      <c r="Q22" s="31"/>
+      <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="31"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="23" t="s">
         <v>5</v>
       </c>
@@ -3101,328 +3872,328 @@
         <v>5</v>
       </c>
       <c r="P23" s="28"/>
-      <c r="Q23" s="31"/>
+      <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="F24" s="31"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2">
         <v>293</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="38" t="str">
+      <c r="F25" s="37"/>
+      <c r="G25" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="F26" s="31"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="31"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="37"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="F27" s="31"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="35" t="str">
+      <c r="F28" s="37"/>
+      <c r="G28" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="36" t="s">
+      <c r="H29" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="I29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="J29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O29" s="36" t="s">
+      <c r="K29" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="40" t="s">
+      <c r="L29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="31"/>
+      <c r="M29" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="43"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="31"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="47"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="49"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="43"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="31"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="47"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="49"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="31"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="47"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="49"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="31"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="47"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="49"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="43"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="31"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="47"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="49"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="37"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="43"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="31"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="49"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="37"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="F36" s="31"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2">
         <v>294</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="38" t="str">
+      <c r="F37" s="37"/>
+      <c r="G37" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="F38" s="31"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3571,230 +4342,230 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33" t="str">
+        <v>41</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="39" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="35" t="str">
+      <c r="F4" s="37"/>
+      <c r="G4" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="36" t="s">
+      <c r="H5" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="I5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="J5" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="K5" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="L5" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="31"/>
+      <c r="M5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="31"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="31"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="49"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2">
         <v>119</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="31"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="49"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3802,61 +4573,61 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="31"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="49"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.376331019</v>
+        <v>44341.382349537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="31"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3864,517 +4635,517 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="31"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="49"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>295</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="38" t="str">
+      <c r="F13" s="37"/>
+      <c r="G13" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>5</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="35" t="str">
+      <c r="F16" s="37"/>
+      <c r="G16" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="36" t="s">
+      <c r="H17" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="I17" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="J17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="K17" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="L17" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="31"/>
+      <c r="M17" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
       <c r="D18" s="2">
         <v>391</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="37">
+      <c r="F18" s="37"/>
+      <c r="G18" s="43">
         <v>1</v>
       </c>
-      <c r="H18" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="37">
+      <c r="H18" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="43">
         <v>2</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="37">
+      <c r="K18" s="49"/>
+      <c r="L18" s="43">
         <v>100</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="31"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2">
         <v>392</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="37">
+      <c r="F19" s="37"/>
+      <c r="G19" s="43">
         <v>2</v>
       </c>
-      <c r="H19" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="37">
+      <c r="H19" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="43">
         <v>2</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="37">
+      <c r="K19" s="49"/>
+      <c r="L19" s="43">
         <v>100</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="44">
+      <c r="N19" s="50">
         <v>2</v>
       </c>
-      <c r="O19" s="44" t="s">
+      <c r="O19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="31"/>
+      <c r="P19" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2">
         <v>393</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="37">
+      <c r="F20" s="37"/>
+      <c r="G20" s="43">
         <v>3</v>
       </c>
-      <c r="H20" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="37">
+      <c r="H20" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="43">
         <v>1</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="37">
+      <c r="K20" s="49"/>
+      <c r="L20" s="43">
         <v>100</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="44">
+      <c r="N20" s="50">
         <v>2</v>
       </c>
-      <c r="O20" s="44" t="s">
+      <c r="O20" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="31"/>
+      <c r="P20" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2">
         <v>394</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="37">
+      <c r="F21" s="37"/>
+      <c r="G21" s="43">
         <v>4</v>
       </c>
-      <c r="H21" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="37">
+      <c r="H21" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="43">
         <v>2</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="37">
+      <c r="K21" s="49"/>
+      <c r="L21" s="43">
         <v>100</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="44">
+      <c r="N21" s="50">
         <v>1</v>
       </c>
-      <c r="O21" s="44" t="s">
+      <c r="O21" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2">
         <v>395</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="37">
+      <c r="F22" s="37"/>
+      <c r="G22" s="43">
         <v>2</v>
       </c>
-      <c r="H22" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="37">
+      <c r="H22" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="43">
         <v>2</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37" t="s">
+      <c r="K22" s="49"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="31"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2">
         <v>396</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="37">
+      <c r="F23" s="37"/>
+      <c r="G23" s="43">
         <v>4</v>
       </c>
-      <c r="H23" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="37">
+      <c r="H23" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="43">
         <v>1</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37" t="s">
+      <c r="K23" s="49"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="44">
+      <c r="N23" s="50">
         <v>1</v>
       </c>
-      <c r="O23" s="44" t="s">
+      <c r="O23" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="F24" s="31"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2">
         <v>296</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="38" t="str">
+      <c r="F25" s="37"/>
+      <c r="G25" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="F26" s="31"/>
-      <c r="G26" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="F27" s="31"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="35" t="str">
+      <c r="F28" s="37"/>
+      <c r="G28" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="36" t="s">
+      <c r="H29" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="I29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="J29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O29" s="36" t="s">
+      <c r="K29" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="40" t="s">
+      <c r="L29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="31"/>
+      <c r="M29" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="31"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="23" t="s">
         <v>5</v>
       </c>
@@ -4393,12 +5164,12 @@
         <v>5</v>
       </c>
       <c r="P30" s="28"/>
-      <c r="Q30" s="31"/>
+      <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="31"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="23" t="s">
         <v>5</v>
       </c>
@@ -4417,12 +5188,12 @@
         <v>5</v>
       </c>
       <c r="P31" s="28"/>
-      <c r="Q31" s="31"/>
+      <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="31"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="23" t="s">
         <v>5</v>
       </c>
@@ -4441,12 +5212,12 @@
         <v>5</v>
       </c>
       <c r="P32" s="28"/>
-      <c r="Q32" s="31"/>
+      <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="31"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="23" t="s">
         <v>5</v>
       </c>
@@ -4465,12 +5236,12 @@
         <v>5</v>
       </c>
       <c r="P33" s="28"/>
-      <c r="Q33" s="31"/>
+      <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="31"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="23" t="s">
         <v>5</v>
       </c>
@@ -4489,12 +5260,12 @@
         <v>5</v>
       </c>
       <c r="P34" s="28"/>
-      <c r="Q34" s="31"/>
+      <c r="Q34" s="37"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="31"/>
+      <c r="F35" s="37"/>
       <c r="G35" s="23" t="s">
         <v>5</v>
       </c>
@@ -4513,58 +5284,58 @@
         <v>5</v>
       </c>
       <c r="P35" s="28"/>
-      <c r="Q35" s="31"/>
+      <c r="Q35" s="37"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="F36" s="31"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2">
         <v>297</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="38" t="str">
+      <c r="F37" s="37"/>
+      <c r="G37" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="F38" s="31"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="31"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="37"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -4713,230 +5484,230 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:17" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33" t="str">
+        <v>41</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="39" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A6 (cohort 2018 - 2021)</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="35" t="str">
+      <c r="F4" s="37"/>
+      <c r="G4" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2018 - 2019)</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="36" t="s">
+      <c r="H5" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="I5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="J5" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="K5" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="L5" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="31"/>
+      <c r="M5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="31"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="31"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="49"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2">
         <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="31"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="49"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4944,61 +5715,61 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="31"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="49"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.376331019</v>
+        <v>44341.382349537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="31"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5006,677 +5777,677 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="31"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="49"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>-2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>298</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="38" t="str">
+      <c r="F13" s="37"/>
+      <c r="G13" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2018 - 2019)</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>6</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="35" t="str">
+      <c r="F16" s="37"/>
+      <c r="G16" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="36" t="s">
+      <c r="H17" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="I17" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="J17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="K17" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="L17" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="31"/>
+      <c r="M17" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="31"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="47"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="31"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="49"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="31"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="49"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="31"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="31"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="49"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="31"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="49"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="F24" s="31"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2">
         <v>299</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="38" t="str">
+      <c r="F25" s="37"/>
+      <c r="G25" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="F26" s="31"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="F27" s="31"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="35" t="str">
+      <c r="F28" s="37"/>
+      <c r="G28" s="41" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="36" t="s">
+      <c r="H29" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="I29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="J29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="O29" s="36" t="s">
+      <c r="K29" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="40" t="s">
+      <c r="L29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="31"/>
+      <c r="M29" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
       <c r="D30" s="2">
         <v>397</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="37">
+      <c r="F30" s="37"/>
+      <c r="G30" s="43">
         <v>1</v>
       </c>
-      <c r="H30" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="42" t="s">
+      <c r="H30" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="43"/>
-      <c r="L30" s="37">
+      <c r="K30" s="49"/>
+      <c r="L30" s="43">
         <v>100</v>
       </c>
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="50">
         <v>4</v>
       </c>
-      <c r="O30" s="44" t="s">
+      <c r="O30" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="P30" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q30" s="31"/>
+      <c r="P30" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
         <v>398</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="37">
+      <c r="F31" s="37"/>
+      <c r="G31" s="43">
         <v>2</v>
       </c>
-      <c r="H31" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="42" t="s">
+      <c r="H31" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="43"/>
-      <c r="L31" s="37">
+      <c r="K31" s="49"/>
+      <c r="L31" s="43">
         <v>100</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="44">
+      <c r="N31" s="50">
         <v>4</v>
       </c>
-      <c r="O31" s="44" t="s">
+      <c r="O31" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q31" s="31"/>
+      <c r="P31" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
         <v>399</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="37">
+      <c r="F32" s="37"/>
+      <c r="G32" s="43">
         <v>3</v>
       </c>
-      <c r="H32" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="42" t="s">
+      <c r="H32" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="37">
+      <c r="K32" s="49"/>
+      <c r="L32" s="43">
         <v>100</v>
       </c>
-      <c r="M32" s="37" t="s">
+      <c r="M32" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="44">
+      <c r="N32" s="50">
         <v>4</v>
       </c>
-      <c r="O32" s="44" t="s">
+      <c r="O32" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q32" s="31"/>
+      <c r="P32" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="31"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="47"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="49"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="43"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="31"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="47"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="49"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="37"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="43"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="31"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="49"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="37"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="F36" s="31"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:17">
       <c r="C37" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2">
         <v>300</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="38" t="str">
+      <c r="F37" s="37"/>
+      <c r="G37" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="F38" s="31"/>
-      <c r="G38" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
@@ -822,21 +822,39 @@
     <t>A</t>
   </si>
   <si>
+    <t>Hoofdstuk 2 (Verbanden) + Vaardigheden</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
+    <t>Hoofdstuk 1 (Systematisch tellen) + Vaardigheden</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
+    <t>Hoofdstuk 4 (Machtsfuncties) + Vaardigheden</t>
+  </si>
+  <si>
     <t>eindJaar</t>
   </si>
   <si>
+    <t>Hoofdstuk 4 (Machtsfuncties) + Hoofdstuk 5 (Exponentiële functies) + Vaardigheden</t>
+  </si>
+  <si>
     <t>vandaag</t>
   </si>
   <si>
+    <t>Hoofdstuk 3 (Statistiek) + Hoofdstuk 7 (Kansen) + Vaardigheden</t>
+  </si>
+  <si>
     <t>huidigStartjaar</t>
   </si>
   <si>
+    <t>Hoofdstuk 6 (Veranderingen) + Hoofdstuk 8C (Vorm en ruimte) + Vaardigheden</t>
+  </si>
+  <si>
     <t>huidigSchooljaar</t>
   </si>
   <si>
@@ -847,24 +865,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 2 (Verbanden) + Vaardigheden</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 1 (Systematisch tellen) + Vaardigheden</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 4 (Machtsfuncties) + Vaardigheden</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 4 (Machtsfuncties) + Hoofdstuk 5 (Exponentiële functies) + Vaardigheden</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 3 (Statistiek) + Hoofdstuk 7 (Kansen) + Vaardigheden</t>
-  </si>
-  <si>
-    <t>Hoofdstuk 6 (Veranderingen) + Hoofdstuk 8C (Vorm en ruimte) + Vaardigheden</t>
   </si>
   <si>
     <t>Bij de schriftelijke toetsen vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor het SE. Stof uit uit voorgaande leerjaren wordt bekend verondersteld en kan teruggevraagd worden.</t>
@@ -2270,21 +2270,29 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>801</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -2295,26 +2303,34 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>802</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -2325,26 +2341,34 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>213</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>803</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>50</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -2355,27 +2379,35 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>804</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>2</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -2386,27 +2418,35 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382349537</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629583333</v>
+      </c>
+      <c r="D10" s="2">
+        <v>805</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>3</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="s">
@@ -2417,27 +2457,35 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>806</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="23">
+        <v>3</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="27" t="s">
@@ -2448,7 +2496,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2469,7 +2517,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2499,7 +2547,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2520,7 +2568,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3359,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>2</v>
@@ -3383,7 +3431,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3397,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43">
         <v>2</v>
@@ -3421,7 +3469,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>118</v>
@@ -3435,7 +3483,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I8" s="43">
         <v>1</v>
@@ -3459,7 +3507,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3474,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I9" s="43">
         <v>3</v>
@@ -3498,11 +3546,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382349537</v>
+        <v>44342.629583333</v>
       </c>
       <c r="D10" s="2">
         <v>389</v>
@@ -3513,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I10" s="43">
         <v>3</v>
@@ -3537,7 +3585,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3552,7 +3600,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I11" s="43">
         <v>3</v>
@@ -3576,7 +3624,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3597,7 +3645,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3627,7 +3675,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3650,7 +3698,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3731,21 +3779,29 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>795</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="s">
@@ -3755,93 +3811,135 @@
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>796</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>797</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="23">
+        <v>1</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>798</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="23">
+        <v>2</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>799</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>2</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="23">
+        <v>2</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="26"/>
       <c r="L22" s="23"/>
       <c r="M22" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N22" s="27"/>
       <c r="O22" s="27" t="s">
@@ -3851,27 +3949,37 @@
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>800</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="23">
+        <v>1</v>
+      </c>
       <c r="J23" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K23" s="26"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="27">
+        <v>1</v>
+      </c>
       <c r="O23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">
@@ -4505,7 +4613,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4535,7 +4643,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>119</v>
@@ -4565,7 +4673,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4596,11 +4704,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382349537</v>
+        <v>44342.629583333</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4627,7 +4735,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4658,7 +4766,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4679,7 +4787,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4709,7 +4817,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4730,7 +4838,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5143,75 +5251,105 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>792</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>4</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>793</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>4</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>794</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>4</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
@@ -5647,7 +5785,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -5677,7 +5815,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>120</v>
@@ -5707,7 +5845,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5738,11 +5876,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382349537</v>
+        <v>44342.629583333</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5769,7 +5907,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5800,7 +5938,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5821,7 +5959,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5851,7 +5989,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5872,7 +6010,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -760,6 +760,59 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">De kolommen G, J, M en O bevatten zogenaamde </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">dropdown</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">-menu's. Gebruik deze voor de invoer. Dat klinkt als een open deur, maar: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">niet</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> handmatig overschrijven!</t>
+    </r>
+  </si>
+  <si>
     <t>Tot slot: is er toch iets mis gegaan of twijfel je? Helemaal niet erg, maar geef het even aan!</t>
   </si>
   <si>
@@ -1196,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1321,6 +1374,17 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="7" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="8" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
@@ -1373,6 +1437,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="7" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
@@ -1381,12 +1449,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="2" numFmtId="1" fillId="8" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="true"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -1972,10 +2044,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="160" zoomScaleNormal="160" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2062,16 +2134,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" customHeight="1" ht="25.5">
+    <row r="14" spans="1:3" customHeight="1" ht="34.5">
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:3" customHeight="1" ht="25.5">
+      <c r="A15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="30"/>
@@ -2118,8 +2195,11 @@
     <row r="30" spans="1:3">
       <c r="B30" s="30"/>
     </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="30"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TeAQE6RCNzwVHdzX9FyhNliu8+va5Lkdju/NK44UuWH5aKez5DYz9/6S7j5dD7ZLPVVot43sIduw8tqQQ+uX7w==" saltValue="Ebq71HmY02pxWYdAxAbGAA==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d3VswOBugDSEcxizlCATwXTFi6niRv28FXqfpcai5ufO11YVowrXNjWqvWMa6vNZE7UYAIjZmiJwrdm2DCGv8g==" saltValue="ZguTsVH23F+wBjJXMNYuDw==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2188,139 +2268,139 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="40">
+        <v>43</v>
+      </c>
+      <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="42" t="str">
+      <c r="G2" s="45" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A3 (cohort 2021 - 2024)</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="44" t="str">
+      <c r="F4" s="42"/>
+      <c r="G4" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="J5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="L5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="M5" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="O5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="P5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -2378,46 +2458,46 @@
         <v>verplichte SE-domeinen</v>
       </c>
       <c r="AF5" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
         <v>801</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="39"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="23">
         <v>1</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="23">
+        <v>63</v>
+      </c>
+      <c r="I6" s="40">
         <v>2</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23">
+      <c r="L6" s="40">
         <v>50</v>
       </c>
       <c r="M6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="28"/>
-      <c r="Q6" s="49"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2481,7 +2561,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2490,32 +2570,32 @@
         <v>802</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="39"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="23">
         <v>1</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="23">
+        <v>65</v>
+      </c>
+      <c r="I7" s="40">
         <v>2</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23">
+      <c r="L7" s="40">
         <v>50</v>
       </c>
       <c r="M7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="27"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P7" s="28"/>
-      <c r="Q7" s="49"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2579,7 +2659,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>213</v>
@@ -2588,32 +2668,32 @@
         <v>803</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="39"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="23">
         <v>2</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="23">
+        <v>67</v>
+      </c>
+      <c r="I8" s="40">
         <v>1</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23">
+      <c r="L8" s="40">
         <v>50</v>
       </c>
       <c r="M8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="27"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P8" s="28"/>
-      <c r="Q8" s="49"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2677,7 +2757,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2687,32 +2767,32 @@
         <v>804</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="39"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="23">
         <v>2</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="23">
+        <v>69</v>
+      </c>
+      <c r="I9" s="40">
         <v>3</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23">
+      <c r="L9" s="40">
         <v>100</v>
       </c>
       <c r="M9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="27"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P9" s="28"/>
-      <c r="Q9" s="49"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2776,42 +2856,42 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44345.647916667</v>
+        <v>44346.428877315</v>
       </c>
       <c r="D10" s="2">
         <v>805</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="23">
         <v>3</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="23">
+        <v>71</v>
+      </c>
+      <c r="I10" s="40">
         <v>3</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23">
+      <c r="L10" s="40">
         <v>100</v>
       </c>
       <c r="M10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="27"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P10" s="28"/>
-      <c r="Q10" s="49"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2875,7 +2955,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2885,32 +2965,32 @@
         <v>806</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="39"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="23">
         <v>4</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="23">
+        <v>73</v>
+      </c>
+      <c r="I11" s="40">
         <v>3</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23">
+      <c r="L11" s="40">
         <v>100</v>
       </c>
       <c r="M11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="27"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P11" s="28"/>
-      <c r="Q11" s="49"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2974,24 +3054,24 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -3009,33 +3089,33 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
         <v>525</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="47" t="str">
+      <c r="F13" s="42"/>
+      <c r="G13" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -3053,13 +3133,13 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="F14" s="39"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -3067,10 +3147,10 @@
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="49"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="52"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -3088,24 +3168,24 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -3123,24 +3203,24 @@
     </row>
     <row r="16" spans="1:32" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="44" t="str">
+      <c r="F16" s="42"/>
+      <c r="G16" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -3158,43 +3238,43 @@
     </row>
     <row r="17" spans="1:32" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="45" t="s">
+      <c r="H17" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="I17" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="J17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="K17" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="L17" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="M17" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="N17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="50" t="s">
+      <c r="O17" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -3213,26 +3293,26 @@
     <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="57"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="58"/>
+      <c r="O18" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="52"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3297,26 +3377,26 @@
     <row r="19" spans="1:32" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="49"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="57"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="58"/>
+      <c r="O19" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="52"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3381,26 +3461,26 @@
     <row r="20" spans="1:32" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="57"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="58"/>
+      <c r="O20" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="52"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3465,26 +3545,26 @@
     <row r="21" spans="1:32" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="49"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="57"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="58"/>
+      <c r="O21" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="52"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3549,26 +3629,26 @@
     <row r="22" spans="1:32" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="49"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="57"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="58"/>
+      <c r="O22" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="52"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3633,26 +3713,26 @@
     <row r="23" spans="1:32" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="57"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="58"/>
+      <c r="O23" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="52"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3715,18 +3795,18 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="39"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -3744,26 +3824,26 @@
     </row>
     <row r="25" spans="1:32">
       <c r="C25" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>526</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="47" t="str">
+      <c r="F25" s="42"/>
+      <c r="G25" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -3780,18 +3860,18 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="39"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -3808,18 +3888,18 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="39"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -3837,24 +3917,24 @@
     </row>
     <row r="28" spans="1:32" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="44" t="str">
+      <c r="F28" s="42"/>
+      <c r="G28" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2023 - 2024)</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -3872,43 +3952,43 @@
     </row>
     <row r="29" spans="1:32" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="45" t="s">
+      <c r="H29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="I29" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="J29" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M29" s="45" t="s">
+      <c r="L29" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="N29" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="50" t="s">
+      <c r="O29" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q29" s="49"/>
+      <c r="P29" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3927,26 +4007,26 @@
     <row r="30" spans="1:32" customHeight="1" ht="72">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="49"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="57"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="58"/>
+      <c r="O30" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="52"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4011,26 +4091,26 @@
     <row r="31" spans="1:32" customHeight="1" ht="72">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="49"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="57"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="58"/>
+      <c r="O31" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="52"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4095,26 +4175,26 @@
     <row r="32" spans="1:32" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="49"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="57"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="58"/>
+      <c r="O32" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4179,26 +4259,26 @@
     <row r="33" spans="1:32" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="53"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="49"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="57"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="58"/>
+      <c r="O33" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="52"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4263,26 +4343,26 @@
     <row r="34" spans="1:32" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="49"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="57"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="58"/>
+      <c r="O34" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="52"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4347,26 +4427,26 @@
     <row r="35" spans="1:32" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="57"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="58"/>
+      <c r="O35" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="52"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4429,58 +4509,58 @@
       </c>
     </row>
     <row r="36" spans="1:32">
-      <c r="F36" s="39"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2">
         <v>527</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="47" t="str">
+      <c r="F37" s="42"/>
+      <c r="G37" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2023 - 2024)</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="F38" s="39"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="puRgrYCDnCsuTz2/h2Po69QZMNx3noAt/zHUQ+KS3fUVuWgjxNI1iLFxgXmxzrPLo/RLpcodW5Gh/dGtEsH9hA==" saltValue="ddgoaj2XY5T+0BSM3eqGrA==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4540,7 +4620,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
+  <dataValidations count="21">
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
       <formula1>instellingen!$G$2:$G$6</formula1>
     </dataValidation>
@@ -4549,6 +4629,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
       <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I18:I23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I30:I35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
       <formula1>instellingen!$H$2:$H$7</formula1>
@@ -4559,6 +4651,18 @@
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
       <formula1>instellingen!$H$2:$H$7</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L18:L23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L30:L35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
       <formula1>instellingen!$I$2:$I$4</formula1>
     </dataValidation>
@@ -4567,6 +4671,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
       <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N6:N11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N18:N23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N30:N35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
       <formula1>instellingen!$I$2:$I$4</formula1>
@@ -4646,139 +4762,139 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="40">
+        <v>43</v>
+      </c>
+      <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="42" t="str">
+      <c r="G2" s="45" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="44" t="str">
+      <c r="F4" s="42"/>
+      <c r="G4" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="J5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="L5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="M5" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="O5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="P5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -4836,46 +4952,46 @@
         <v>verplichte SE-domeinen</v>
       </c>
       <c r="AF5" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
         <v>385</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="46">
+      <c r="F6" s="42"/>
+      <c r="G6" s="49">
         <v>1</v>
       </c>
-      <c r="H6" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="46">
+      <c r="H6" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="55">
         <v>2</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="46">
+      <c r="K6" s="57"/>
+      <c r="L6" s="55">
         <v>50</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="49"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4939,7 +5055,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4948,32 +5064,32 @@
         <v>386</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="46">
+      <c r="F7" s="42"/>
+      <c r="G7" s="49">
         <v>1</v>
       </c>
-      <c r="H7" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="46">
+      <c r="H7" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="55">
         <v>2</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="46">
+      <c r="K7" s="57"/>
+      <c r="L7" s="55">
         <v>50</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="M7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="49"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5037,7 +5153,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>118</v>
@@ -5046,32 +5162,32 @@
         <v>387</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="46">
+      <c r="F8" s="42"/>
+      <c r="G8" s="49">
         <v>2</v>
       </c>
-      <c r="H8" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="46">
+      <c r="H8" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="55">
         <v>1</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="46">
+      <c r="K8" s="57"/>
+      <c r="L8" s="55">
         <v>50</v>
       </c>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="49"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5135,7 +5251,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5145,32 +5261,32 @@
         <v>388</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="46">
+      <c r="F9" s="42"/>
+      <c r="G9" s="49">
         <v>2</v>
       </c>
-      <c r="H9" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="46">
+      <c r="H9" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="55">
         <v>3</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="46">
+      <c r="K9" s="57"/>
+      <c r="L9" s="55">
         <v>100</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="49"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5234,42 +5350,42 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44345.647916667</v>
+        <v>44346.428877315</v>
       </c>
       <c r="D10" s="2">
         <v>389</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="46">
+      <c r="F10" s="42"/>
+      <c r="G10" s="49">
         <v>3</v>
       </c>
-      <c r="H10" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="46">
+      <c r="H10" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="55">
         <v>3</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="46">
+      <c r="K10" s="57"/>
+      <c r="L10" s="55">
         <v>100</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="49"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5333,7 +5449,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5343,32 +5459,32 @@
         <v>390</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="46">
+      <c r="F11" s="42"/>
+      <c r="G11" s="49">
         <v>4</v>
       </c>
-      <c r="H11" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="46">
+      <c r="H11" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="55">
         <v>3</v>
       </c>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="46">
+      <c r="K11" s="57"/>
+      <c r="L11" s="55">
         <v>100</v>
       </c>
-      <c r="M11" s="46" t="s">
+      <c r="M11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="49"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5432,24 +5548,24 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -5467,33 +5583,33 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
         <v>292</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="47" t="str">
+      <c r="F13" s="42"/>
+      <c r="G13" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -5511,26 +5627,26 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -5548,24 +5664,24 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -5583,24 +5699,24 @@
     </row>
     <row r="16" spans="1:32" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="44" t="str">
+      <c r="F16" s="42"/>
+      <c r="G16" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -5618,43 +5734,43 @@
     </row>
     <row r="17" spans="1:32" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="45" t="s">
+      <c r="H17" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="I17" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="J17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="K17" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="L17" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="M17" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="N17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="50" t="s">
+      <c r="O17" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -5675,32 +5791,32 @@
         <v>795</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="39"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="23">
         <v>1</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="23">
+        <v>79</v>
+      </c>
+      <c r="I18" s="40">
         <v>2</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23">
+      <c r="L18" s="40">
         <v>100</v>
       </c>
       <c r="M18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="27"/>
+      <c r="N18" s="41"/>
       <c r="O18" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P18" s="28"/>
-      <c r="Q18" s="49"/>
+      <c r="Q18" s="52"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5767,36 +5883,36 @@
         <v>796</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="39"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="23">
         <v>2</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="23">
+        <v>80</v>
+      </c>
+      <c r="I19" s="40">
         <v>2</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23">
+      <c r="L19" s="40">
         <v>100</v>
       </c>
       <c r="M19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="41">
         <v>2</v>
       </c>
       <c r="O19" s="27" t="s">
         <v>8</v>
       </c>
       <c r="P19" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="49"/>
+        <v>81</v>
+      </c>
+      <c r="Q19" s="52"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5863,36 +5979,36 @@
         <v>797</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="39"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="23">
         <v>3</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="23">
+        <v>82</v>
+      </c>
+      <c r="I20" s="40">
         <v>1</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23">
+      <c r="L20" s="40">
         <v>100</v>
       </c>
       <c r="M20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="41">
         <v>2</v>
       </c>
       <c r="O20" s="27" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q20" s="49"/>
+        <v>83</v>
+      </c>
+      <c r="Q20" s="52"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5959,36 +6075,36 @@
         <v>798</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="39"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="23">
         <v>4</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="23">
+        <v>84</v>
+      </c>
+      <c r="I21" s="40">
         <v>2</v>
       </c>
       <c r="J21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23">
+      <c r="L21" s="40">
         <v>100</v>
       </c>
       <c r="M21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="41">
         <v>1</v>
       </c>
       <c r="O21" s="27" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q21" s="49"/>
+        <v>83</v>
+      </c>
+      <c r="Q21" s="52"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6055,30 +6171,30 @@
         <v>799</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="39"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="23">
         <v>2</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="23">
+        <v>85</v>
+      </c>
+      <c r="I22" s="40">
         <v>2</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="40"/>
       <c r="M22" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="27"/>
+      <c r="N22" s="41"/>
       <c r="O22" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P22" s="28"/>
-      <c r="Q22" s="49"/>
+      <c r="Q22" s="52"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6145,34 +6261,34 @@
         <v>800</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="39"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="23">
         <v>4</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="23">
+        <v>86</v>
+      </c>
+      <c r="I23" s="40">
         <v>1</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>19</v>
       </c>
       <c r="K23" s="26"/>
-      <c r="L23" s="23"/>
+      <c r="L23" s="40"/>
       <c r="M23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="41">
         <v>1</v>
       </c>
       <c r="O23" s="27" t="s">
         <v>11</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q23" s="49"/>
+        <v>87</v>
+      </c>
+      <c r="Q23" s="52"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6235,18 +6351,18 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="39"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6264,26 +6380,26 @@
     </row>
     <row r="25" spans="1:32">
       <c r="C25" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>293</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="47" t="str">
+      <c r="F25" s="42"/>
+      <c r="G25" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -6300,7 +6416,7 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="39"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
@@ -6308,10 +6424,10 @@
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="49"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="52"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6328,18 +6444,18 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="39"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6357,24 +6473,24 @@
     </row>
     <row r="28" spans="1:32" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="44" t="str">
+      <c r="F28" s="42"/>
+      <c r="G28" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -6392,43 +6508,43 @@
     </row>
     <row r="29" spans="1:32" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="45" t="s">
+      <c r="H29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="I29" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="J29" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M29" s="45" t="s">
+      <c r="L29" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="N29" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="50" t="s">
+      <c r="O29" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q29" s="49"/>
+      <c r="P29" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -6447,26 +6563,26 @@
     <row r="30" spans="1:32" customHeight="1" ht="72">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="49"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="57"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="58"/>
+      <c r="O30" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="52"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6531,26 +6647,26 @@
     <row r="31" spans="1:32" customHeight="1" ht="72">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="49"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="57"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="58"/>
+      <c r="O31" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="52"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6615,26 +6731,26 @@
     <row r="32" spans="1:32" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="49"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="57"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="58"/>
+      <c r="O32" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6699,26 +6815,26 @@
     <row r="33" spans="1:32" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="53"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="49"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="57"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="58"/>
+      <c r="O33" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="52"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6783,26 +6899,26 @@
     <row r="34" spans="1:32" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="49"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="57"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="58"/>
+      <c r="O34" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="52"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6867,26 +6983,26 @@
     <row r="35" spans="1:32" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="57"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="58"/>
+      <c r="O35" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="52"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6949,58 +7065,58 @@
       </c>
     </row>
     <row r="36" spans="1:32">
-      <c r="F36" s="39"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2">
         <v>294</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="47" t="str">
+      <c r="F37" s="42"/>
+      <c r="G37" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="F38" s="39"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="puRgrYCDnCsuTz2/h2Po69QZMNx3noAt/zHUQ+KS3fUVuWgjxNI1iLFxgXmxzrPLo/RLpcodW5Gh/dGtEsH9hA==" saltValue="ddgoaj2XY5T+0BSM3eqGrA==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7060,7 +7176,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
+  <dataValidations count="21">
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
       <formula1>instellingen!$G$2:$G$6</formula1>
     </dataValidation>
@@ -7069,6 +7185,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
       <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I18:I23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I30:I35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
       <formula1>instellingen!$H$2:$H$7</formula1>
@@ -7079,6 +7207,18 @@
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
       <formula1>instellingen!$H$2:$H$7</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L18:L23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L30:L35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
       <formula1>instellingen!$I$2:$I$4</formula1>
     </dataValidation>
@@ -7087,6 +7227,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
       <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N6:N11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N18:N23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N30:N35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
       <formula1>instellingen!$I$2:$I$4</formula1>
@@ -7166,139 +7318,139 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="40">
+        <v>43</v>
+      </c>
+      <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="42" t="str">
+      <c r="G2" s="45" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="44" t="str">
+      <c r="F4" s="42"/>
+      <c r="G4" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="J5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="L5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="M5" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="O5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="P5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -7356,38 +7508,38 @@
         <v>verplichte SE-domeinen</v>
       </c>
       <c r="AF5" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="49"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="57"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="58"/>
+      <c r="O6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7451,33 +7603,33 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="49"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="58"/>
+      <c r="O7" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7541,33 +7693,33 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>119</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="49"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="57"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="58"/>
+      <c r="O8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7631,7 +7783,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7639,26 +7791,26 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="49"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="57"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="58"/>
+      <c r="O9" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7722,34 +7874,34 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44345.647916667</v>
+        <v>44346.428877315</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="49"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="57"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="58"/>
+      <c r="O10" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7813,7 +7965,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7821,26 +7973,26 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="49"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="57"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="58"/>
+      <c r="O11" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7904,24 +8056,24 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -7939,33 +8091,33 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
         <v>295</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="47" t="str">
+      <c r="F13" s="42"/>
+      <c r="G13" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -7983,24 +8135,24 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>5</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -8018,24 +8170,24 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -8053,24 +8205,24 @@
     </row>
     <row r="16" spans="1:32" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="44" t="str">
+      <c r="F16" s="42"/>
+      <c r="G16" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -8088,43 +8240,43 @@
     </row>
     <row r="17" spans="1:32" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="45" t="s">
+      <c r="H17" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="I17" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="J17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="K17" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="L17" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="M17" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="N17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="50" t="s">
+      <c r="O17" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -8145,32 +8297,32 @@
         <v>391</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="46">
+      <c r="F18" s="42"/>
+      <c r="G18" s="49">
         <v>1</v>
       </c>
-      <c r="H18" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="46">
+      <c r="H18" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="55">
         <v>2</v>
       </c>
-      <c r="J18" s="52" t="s">
+      <c r="J18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="46">
+      <c r="K18" s="57"/>
+      <c r="L18" s="55">
         <v>100</v>
       </c>
-      <c r="M18" s="46" t="s">
+      <c r="M18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="49"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="52"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8237,36 +8389,36 @@
         <v>392</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="46">
+      <c r="F19" s="42"/>
+      <c r="G19" s="49">
         <v>2</v>
       </c>
-      <c r="H19" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="46">
+      <c r="H19" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="55">
         <v>2</v>
       </c>
-      <c r="J19" s="52" t="s">
+      <c r="J19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="46">
+      <c r="K19" s="57"/>
+      <c r="L19" s="55">
         <v>100</v>
       </c>
-      <c r="M19" s="46" t="s">
+      <c r="M19" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="54">
+      <c r="N19" s="58">
         <v>2</v>
       </c>
-      <c r="O19" s="54" t="s">
+      <c r="O19" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="49"/>
+      <c r="P19" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="52"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8333,36 +8485,36 @@
         <v>393</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="46">
+      <c r="F20" s="42"/>
+      <c r="G20" s="49">
         <v>3</v>
       </c>
-      <c r="H20" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="46">
+      <c r="H20" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="55">
         <v>1</v>
       </c>
-      <c r="J20" s="52" t="s">
+      <c r="J20" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="46">
+      <c r="K20" s="57"/>
+      <c r="L20" s="55">
         <v>100</v>
       </c>
-      <c r="M20" s="46" t="s">
+      <c r="M20" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="54">
+      <c r="N20" s="58">
         <v>2</v>
       </c>
-      <c r="O20" s="54" t="s">
+      <c r="O20" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q20" s="49"/>
+      <c r="P20" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="52"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8429,36 +8581,36 @@
         <v>394</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="46">
+      <c r="F21" s="42"/>
+      <c r="G21" s="49">
         <v>4</v>
       </c>
-      <c r="H21" s="51" t="s">
+      <c r="H21" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="55">
+        <v>2</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="57"/>
+      <c r="L21" s="55">
+        <v>100</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="58">
+        <v>1</v>
+      </c>
+      <c r="O21" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="46">
-        <v>2</v>
-      </c>
-      <c r="J21" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="46">
-        <v>100</v>
-      </c>
-      <c r="M21" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="54">
-        <v>1</v>
-      </c>
-      <c r="O21" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q21" s="49"/>
+      <c r="Q21" s="52"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8525,30 +8677,30 @@
         <v>395</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="46">
+      <c r="F22" s="42"/>
+      <c r="G22" s="49">
         <v>2</v>
       </c>
-      <c r="H22" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="46">
+      <c r="H22" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="55">
         <v>2</v>
       </c>
-      <c r="J22" s="52" t="s">
+      <c r="J22" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46" t="s">
+      <c r="K22" s="57"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="49"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="52"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8615,34 +8767,34 @@
         <v>396</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="46">
+      <c r="F23" s="42"/>
+      <c r="G23" s="49">
         <v>4</v>
       </c>
-      <c r="H23" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="46">
+      <c r="H23" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="55">
         <v>1</v>
       </c>
-      <c r="J23" s="52" t="s">
+      <c r="J23" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="54">
+      <c r="N23" s="58">
         <v>1</v>
       </c>
-      <c r="O23" s="54" t="s">
+      <c r="O23" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q23" s="49"/>
+      <c r="P23" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="52"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8705,18 +8857,18 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="39"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -8734,26 +8886,26 @@
     </row>
     <row r="25" spans="1:32">
       <c r="C25" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>296</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="47" t="str">
+      <c r="F25" s="42"/>
+      <c r="G25" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -8770,20 +8922,20 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="39"/>
-      <c r="G26" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -8800,18 +8952,18 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="39"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -8829,24 +8981,24 @@
     </row>
     <row r="28" spans="1:32" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="44" t="str">
+      <c r="F28" s="42"/>
+      <c r="G28" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -8864,43 +9016,43 @@
     </row>
     <row r="29" spans="1:32" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="45" t="s">
+      <c r="H29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="I29" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="J29" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M29" s="45" t="s">
+      <c r="L29" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="N29" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="50" t="s">
+      <c r="O29" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q29" s="49"/>
+      <c r="P29" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -8921,34 +9073,34 @@
         <v>792</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="39"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="23">
         <v>1</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="23"/>
+        <v>89</v>
+      </c>
+      <c r="I30" s="40"/>
       <c r="J30" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23">
+      <c r="L30" s="40">
         <v>100</v>
       </c>
       <c r="M30" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="41">
         <v>4</v>
       </c>
       <c r="O30" s="27" t="s">
         <v>8</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q30" s="49"/>
+        <v>90</v>
+      </c>
+      <c r="Q30" s="52"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9015,34 +9167,34 @@
         <v>793</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="39"/>
+      <c r="F31" s="42"/>
       <c r="G31" s="23">
         <v>2</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="23"/>
+        <v>91</v>
+      </c>
+      <c r="I31" s="40"/>
       <c r="J31" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23">
+      <c r="L31" s="40">
         <v>100</v>
       </c>
       <c r="M31" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="41">
         <v>4</v>
       </c>
       <c r="O31" s="27" t="s">
         <v>8</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q31" s="49"/>
+        <v>92</v>
+      </c>
+      <c r="Q31" s="52"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9109,34 +9261,34 @@
         <v>794</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="39"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="23">
         <v>3</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="I32" s="23"/>
+        <v>93</v>
+      </c>
+      <c r="I32" s="40"/>
       <c r="J32" s="25" t="s">
         <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23">
+      <c r="L32" s="40">
         <v>100</v>
       </c>
       <c r="M32" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N32" s="41">
         <v>4</v>
       </c>
       <c r="O32" s="27" t="s">
         <v>8</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q32" s="49"/>
+        <v>92</v>
+      </c>
+      <c r="Q32" s="52"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9201,26 +9353,26 @@
     <row r="33" spans="1:32" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="39"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="24"/>
-      <c r="I33" s="23"/>
+      <c r="I33" s="40"/>
       <c r="J33" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K33" s="26"/>
-      <c r="L33" s="23"/>
+      <c r="L33" s="40"/>
       <c r="M33" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="27"/>
+      <c r="N33" s="41"/>
       <c r="O33" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P33" s="28"/>
-      <c r="Q33" s="49"/>
+      <c r="Q33" s="52"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9285,26 +9437,26 @@
     <row r="34" spans="1:32" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="39"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H34" s="24"/>
-      <c r="I34" s="23"/>
+      <c r="I34" s="40"/>
       <c r="J34" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K34" s="26"/>
-      <c r="L34" s="23"/>
+      <c r="L34" s="40"/>
       <c r="M34" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N34" s="27"/>
+      <c r="N34" s="41"/>
       <c r="O34" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P34" s="28"/>
-      <c r="Q34" s="49"/>
+      <c r="Q34" s="52"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9369,26 +9521,26 @@
     <row r="35" spans="1:32" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="39"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="24"/>
-      <c r="I35" s="23"/>
+      <c r="I35" s="40"/>
       <c r="J35" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K35" s="26"/>
-      <c r="L35" s="23"/>
+      <c r="L35" s="40"/>
       <c r="M35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="27"/>
+      <c r="N35" s="41"/>
       <c r="O35" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P35" s="28"/>
-      <c r="Q35" s="49"/>
+      <c r="Q35" s="52"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9451,44 +9603,44 @@
       </c>
     </row>
     <row r="36" spans="1:32">
-      <c r="F36" s="39"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2">
         <v>297</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="47" t="str">
+      <c r="F37" s="42"/>
+      <c r="G37" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="F38" s="39"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="38"/>
@@ -9496,13 +9648,13 @@
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="49"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="puRgrYCDnCsuTz2/h2Po69QZMNx3noAt/zHUQ+KS3fUVuWgjxNI1iLFxgXmxzrPLo/RLpcodW5Gh/dGtEsH9hA==" saltValue="ddgoaj2XY5T+0BSM3eqGrA==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9562,7 +9714,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
+  <dataValidations count="21">
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
       <formula1>instellingen!$G$2:$G$6</formula1>
     </dataValidation>
@@ -9571,6 +9723,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
       <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I18:I23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I30:I35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
       <formula1>instellingen!$H$2:$H$7</formula1>
@@ -9581,6 +9745,18 @@
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
       <formula1>instellingen!$H$2:$H$7</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L18:L23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L30:L35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
       <formula1>instellingen!$I$2:$I$4</formula1>
     </dataValidation>
@@ -9589,6 +9765,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
       <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N6:N11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N18:N23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N30:N35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
       <formula1>instellingen!$I$2:$I$4</formula1>
@@ -9668,139 +9856,139 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="40">
+        <v>43</v>
+      </c>
+      <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="42" t="str">
+      <c r="G2" s="45" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A6 (cohort 2018 - 2021)</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="44" t="str">
+      <c r="F4" s="42"/>
+      <c r="G4" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2018 - 2019)</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="J5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="L5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="M5" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="O5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="P5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -9858,38 +10046,38 @@
         <v>verplichte SE-domeinen</v>
       </c>
       <c r="AF5" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:32" customHeight="1" ht="72">
       <c r="A6" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="49"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="57"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="58"/>
+      <c r="O6" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9953,33 +10141,33 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="49"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="58"/>
+      <c r="O7" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10043,33 +10231,33 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="49"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="57"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="58"/>
+      <c r="O8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10133,7 +10321,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -10141,26 +10329,26 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="49"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="57"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="58"/>
+      <c r="O9" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10224,34 +10412,34 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44345.647916667</v>
+        <v>44346.428877315</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="49"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="57"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="58"/>
+      <c r="O10" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="52"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10315,7 +10503,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -10323,26 +10511,26 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="49"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="57"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="58"/>
+      <c r="O11" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="52"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10406,24 +10594,24 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -10441,33 +10629,33 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
         <v>-2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
         <v>298</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="47" t="str">
+      <c r="F13" s="42"/>
+      <c r="G13" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2018 - 2019)</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -10485,24 +10673,24 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>6</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -10520,24 +10708,24 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -10555,24 +10743,24 @@
     </row>
     <row r="16" spans="1:32" customHeight="1" ht="30.75">
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="44" t="str">
+      <c r="F16" s="42"/>
+      <c r="G16" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -10590,43 +10778,43 @@
     </row>
     <row r="17" spans="1:32" customHeight="1" ht="34.5">
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="45" t="s">
+      <c r="H17" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="I17" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="J17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="K17" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="L17" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="M17" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="N17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="50" t="s">
+      <c r="O17" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -10645,26 +10833,26 @@
     <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="57"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="58"/>
+      <c r="O18" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="52"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10729,26 +10917,26 @@
     <row r="19" spans="1:32" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="49"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="57"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="58"/>
+      <c r="O19" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="52"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10813,26 +11001,26 @@
     <row r="20" spans="1:32" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="57"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="58"/>
+      <c r="O20" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="52"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10897,26 +11085,26 @@
     <row r="21" spans="1:32" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="49"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="57"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="58"/>
+      <c r="O21" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="52"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10981,26 +11169,26 @@
     <row r="22" spans="1:32" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="49"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="57"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="58"/>
+      <c r="O22" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="52"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11065,26 +11253,26 @@
     <row r="23" spans="1:32" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="57"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="58"/>
+      <c r="O23" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="52"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11147,18 +11335,18 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="39"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -11176,26 +11364,26 @@
     </row>
     <row r="25" spans="1:32">
       <c r="C25" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
         <v>299</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="47" t="str">
+      <c r="F25" s="42"/>
+      <c r="G25" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -11212,18 +11400,18 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="39"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -11240,18 +11428,18 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="39"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -11269,24 +11457,24 @@
     </row>
     <row r="28" spans="1:32" customHeight="1" ht="30.75">
       <c r="C28" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="44" t="str">
+      <c r="F28" s="42"/>
+      <c r="G28" s="47" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -11304,43 +11492,43 @@
     </row>
     <row r="29" spans="1:32" customHeight="1" ht="34.5">
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="45" t="s">
+      <c r="H29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="I29" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="J29" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M29" s="45" t="s">
+      <c r="L29" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="N29" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="50" t="s">
+      <c r="O29" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="Q29" s="49"/>
+      <c r="P29" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -11361,34 +11549,34 @@
         <v>397</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="46">
+      <c r="F30" s="42"/>
+      <c r="G30" s="49">
         <v>1</v>
       </c>
-      <c r="H30" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="52" t="s">
+      <c r="H30" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="46">
+      <c r="K30" s="57"/>
+      <c r="L30" s="55">
         <v>100</v>
       </c>
-      <c r="M30" s="46" t="s">
+      <c r="M30" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="54">
+      <c r="N30" s="58">
         <v>4</v>
       </c>
-      <c r="O30" s="54" t="s">
+      <c r="O30" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="P30" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q30" s="49"/>
+      <c r="P30" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q30" s="52"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11455,34 +11643,34 @@
         <v>398</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="46">
+      <c r="F31" s="42"/>
+      <c r="G31" s="49">
         <v>2</v>
       </c>
-      <c r="H31" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="52" t="s">
+      <c r="H31" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="46">
+      <c r="K31" s="57"/>
+      <c r="L31" s="55">
         <v>100</v>
       </c>
-      <c r="M31" s="46" t="s">
+      <c r="M31" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="54">
+      <c r="N31" s="58">
         <v>4</v>
       </c>
-      <c r="O31" s="54" t="s">
+      <c r="O31" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q31" s="49"/>
+      <c r="P31" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q31" s="52"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11549,34 +11737,34 @@
         <v>399</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="46">
+      <c r="F32" s="42"/>
+      <c r="G32" s="49">
         <v>3</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="57"/>
+      <c r="L32" s="55">
+        <v>100</v>
+      </c>
+      <c r="M32" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="58">
+        <v>4</v>
+      </c>
+      <c r="O32" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="46">
-        <v>100</v>
-      </c>
-      <c r="M32" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="54">
-        <v>4</v>
-      </c>
-      <c r="O32" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q32" s="49"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11641,26 +11829,26 @@
     <row r="33" spans="1:32" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="53"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="49"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="57"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="58"/>
+      <c r="O33" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="52"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11725,26 +11913,26 @@
     <row r="34" spans="1:32" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="49"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="57"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="58"/>
+      <c r="O34" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="52"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11809,26 +11997,26 @@
     <row r="35" spans="1:32" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="57"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="58"/>
+      <c r="O35" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="52"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11891,60 +12079,60 @@
       </c>
     </row>
     <row r="36" spans="1:32">
-      <c r="F36" s="39"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2">
         <v>300</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="47" t="str">
+      <c r="F37" s="42"/>
+      <c r="G37" s="50" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="F38" s="39"/>
-      <c r="G38" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="puRgrYCDnCsuTz2/h2Po69QZMNx3noAt/zHUQ+KS3fUVuWgjxNI1iLFxgXmxzrPLo/RLpcodW5Gh/dGtEsH9hA==" saltValue="ddgoaj2XY5T+0BSM3eqGrA==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -12004,7 +12192,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
+  <dataValidations count="21">
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
       <formula1>instellingen!$G$2:$G$6</formula1>
     </dataValidation>
@@ -12013,6 +12201,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
       <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I18:I23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I30:I35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
       <formula1>instellingen!$H$2:$H$7</formula1>
@@ -12023,6 +12223,18 @@
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
       <formula1>instellingen!$H$2:$H$7</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L18:L23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L30:L35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
       <formula1>instellingen!$I$2:$I$4</formula1>
     </dataValidation>
@@ -12031,6 +12243,18 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
       <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N6:N11">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N18:N23">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N30:N35">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
       <formula1>instellingen!$I$2:$I$4</formula1>

--- a/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
@@ -1030,6 +1030,24 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -1045,6 +1063,15 @@
       <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FFD8D8D8"/>
       <name val="Segoe UI"/>
     </font>
     <font>
@@ -1079,35 +1106,8 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FFD8D8D8"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="26"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FFF2F2F2"/>
       <name val="Segoe UI"/>
     </font>
   </fonts>
@@ -1165,13 +1165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
+        <fgColor rgb="FF223962"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF223962"/>
+        <fgColor rgb="FFED7D31"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1249,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="50">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1301,20 +1301,32 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="10" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="11" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1323,7 +1335,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
@@ -1331,7 +1343,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
@@ -1339,9 +1351,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1349,16 +1364,16 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="12" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,12 +1382,11 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1385,93 +1399,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="8" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="10" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="1" fillId="7" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="1" fillId="8" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1992,31 +1928,31 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" customHeight="1" ht="15.75">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" customHeight="1" ht="15.75">
-      <c r="A11" s="20"/>
+      <c r="A11" s="23"/>
       <c r="B11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
@@ -2058,145 +1994,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" customHeight="1" ht="74.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" customHeight="1" ht="106.5">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" customHeight="1" ht="161.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" customHeight="1" ht="107.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" customHeight="1" ht="34.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" customHeight="1" ht="67.5" s="29" customFormat="1">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:3" customHeight="1" ht="67.5" s="34" customFormat="1">
+      <c r="A11" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" customHeight="1" ht="51.75">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" customHeight="1" ht="34.5">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" customHeight="1" ht="34.5">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" customHeight="1" ht="25.5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="30"/>
+      <c r="B16" s="35"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="30"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="30"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="B19" s="30"/>
+      <c r="B19" s="35"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="30"/>
+      <c r="B20" s="35"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="30"/>
+      <c r="B21" s="35"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="30"/>
+      <c r="B22" s="35"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="30"/>
+      <c r="B23" s="35"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="30"/>
+      <c r="B24" s="35"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="30"/>
+      <c r="B25" s="35"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="30"/>
+      <c r="B26" s="35"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="30"/>
+      <c r="B27" s="35"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="30"/>
+      <c r="B28" s="35"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="30"/>
+      <c r="B29" s="35"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="30"/>
+      <c r="B30" s="35"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="30"/>
+      <c r="B31" s="35"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d3VswOBugDSEcxizlCATwXTFi6niRv28FXqfpcai5ufO11YVowrXNjWqvWMa6vNZE7UYAIjZmiJwrdm2DCGv8g==" saltValue="ZguTsVH23F+wBjJXMNYuDw==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -2223,17 +2159,17 @@
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="37"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="42"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
     <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
@@ -2245,21 +2181,6 @@
     <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
     <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
     <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-    <col min="18" max="18" width="9.10" hidden="true" style="0"/>
-    <col min="19" max="19" width="9.10" hidden="true" style="0"/>
-    <col min="20" max="20" width="9.10" hidden="true" style="0"/>
-    <col min="21" max="21" width="9.10" hidden="true" style="0"/>
-    <col min="22" max="22" width="9.10" hidden="true" style="0"/>
-    <col min="23" max="23" width="9.10" hidden="true" style="0"/>
-    <col min="24" max="24" width="9.10" hidden="true" style="0"/>
-    <col min="25" max="25" width="9.10" hidden="true" style="0"/>
-    <col min="26" max="26" width="9.10" hidden="true" style="0"/>
-    <col min="27" max="27" width="9.10" hidden="true" style="0"/>
-    <col min="28" max="28" width="9.10" hidden="true" style="0"/>
-    <col min="29" max="29" width="9.10" hidden="true" style="0"/>
-    <col min="30" max="30" width="9.10" hidden="true" style="0"/>
-    <col min="31" max="31" width="9.10" hidden="true" style="0"/>
-    <col min="32" max="32" width="9.10" hidden="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -2268,20 +2189,9 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
@@ -2294,20 +2204,17 @@
         <f>SUM(AF6:AF35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="45" t="str">
+      <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A3 (cohort 2021 - 2024)</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
@@ -2316,18 +2223,6 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
@@ -2340,21 +2235,10 @@
         <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="47" t="str">
+      <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
@@ -2366,41 +2250,39 @@
       <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -2457,7 +2339,7 @@
         <f>P5</f>
         <v>verplichte SE-domeinen</v>
       </c>
-      <c r="AF5" s="36" t="s">
+      <c r="AF5" s="41" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2472,32 +2354,30 @@
         <v>801</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="23">
+      <c r="G6" s="27">
         <v>1</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="45">
         <v>2</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="40">
+      <c r="K6" s="30"/>
+      <c r="L6" s="45">
         <v>50</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="52"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2570,32 +2450,30 @@
         <v>802</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="23">
+      <c r="G7" s="27">
         <v>1</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="45">
         <v>2</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="40">
+      <c r="K7" s="30"/>
+      <c r="L7" s="45">
         <v>50</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="52"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2668,32 +2546,30 @@
         <v>803</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="23">
+      <c r="G8" s="27">
         <v>2</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="45">
         <v>1</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="40">
+      <c r="K8" s="30"/>
+      <c r="L8" s="45">
         <v>50</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="52"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2767,32 +2643,30 @@
         <v>804</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="23">
+      <c r="G9" s="27">
         <v>2</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="45">
         <v>3</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="40">
+      <c r="K9" s="30"/>
+      <c r="L9" s="45">
         <v>100</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="52"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2860,38 +2734,36 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44346.428877315</v>
+        <v>44364.591736111</v>
       </c>
       <c r="D10" s="2">
         <v>805</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="23">
+      <c r="G10" s="27">
         <v>3</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="45">
         <v>3</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="40">
+      <c r="K10" s="30"/>
+      <c r="L10" s="45">
         <v>100</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="52"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2965,32 +2837,30 @@
         <v>806</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="23">
+      <c r="G11" s="27">
         <v>4</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="45">
         <v>3</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="40">
+      <c r="K11" s="30"/>
+      <c r="L11" s="45">
         <v>100</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="52"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3060,18 +2930,6 @@
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -3101,21 +2959,16 @@
       <c r="D13" s="2">
         <v>525</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="50" t="str">
+      <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -3139,18 +2992,13 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="52"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -3174,18 +3022,6 @@
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -3206,21 +3042,10 @@
         <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="47" t="str">
+      <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -3240,41 +3065,39 @@
       <c r="D17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -3293,26 +3116,24 @@
     <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="52"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="46"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3377,26 +3198,24 @@
     <row r="19" spans="1:32" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="58"/>
-      <c r="O19" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="52"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="46"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3461,26 +3280,24 @@
     <row r="20" spans="1:32" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="52"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="46"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3545,26 +3362,24 @@
     <row r="21" spans="1:32" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="58"/>
-      <c r="O21" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="52"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="46"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3629,26 +3444,24 @@
     <row r="22" spans="1:32" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="52"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="46"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3713,26 +3526,24 @@
     <row r="23" spans="1:32" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="52"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="46"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -3795,18 +3606,6 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="42"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -3829,21 +3628,16 @@
       <c r="D25" s="2">
         <v>526</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="50" t="str">
+      <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -3860,18 +3654,13 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="42"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -3888,18 +3677,6 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="42"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -3920,21 +3697,10 @@
         <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="47" t="str">
+      <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2023 - 2024)</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -3954,41 +3720,39 @@
       <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="48" t="s">
+      <c r="N29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P29" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -4007,26 +3771,24 @@
     <row r="30" spans="1:32" customHeight="1" ht="72">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="52"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="46"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4091,26 +3853,24 @@
     <row r="31" spans="1:32" customHeight="1" ht="72">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="58"/>
-      <c r="O31" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="52"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="46"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4175,26 +3935,24 @@
     <row r="32" spans="1:32" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="52"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="46"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4259,26 +4017,24 @@
     <row r="33" spans="1:32" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="57"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="58"/>
-      <c r="O33" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="52"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="46"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4343,26 +4099,24 @@
     <row r="34" spans="1:32" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="57"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="58"/>
-      <c r="O34" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="52"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="46"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4427,26 +4181,24 @@
     <row r="35" spans="1:32" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="57"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="58"/>
-      <c r="O35" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="52"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="46"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -4507,20 +4259,6 @@
         <f>SUM(R35:AE35)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
-      <c r="F36" s="42"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="9" t="s">
@@ -4529,38 +4267,28 @@
       <c r="D37" s="2">
         <v>527</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="50" t="str">
+      <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2023 - 2024)</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="F38" s="42"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4717,17 +4445,17 @@
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="37"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="42"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
     <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
@@ -4739,21 +4467,6 @@
     <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
     <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
     <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-    <col min="18" max="18" width="9.10" hidden="true" style="0"/>
-    <col min="19" max="19" width="9.10" hidden="true" style="0"/>
-    <col min="20" max="20" width="9.10" hidden="true" style="0"/>
-    <col min="21" max="21" width="9.10" hidden="true" style="0"/>
-    <col min="22" max="22" width="9.10" hidden="true" style="0"/>
-    <col min="23" max="23" width="9.10" hidden="true" style="0"/>
-    <col min="24" max="24" width="9.10" hidden="true" style="0"/>
-    <col min="25" max="25" width="9.10" hidden="true" style="0"/>
-    <col min="26" max="26" width="9.10" hidden="true" style="0"/>
-    <col min="27" max="27" width="9.10" hidden="true" style="0"/>
-    <col min="28" max="28" width="9.10" hidden="true" style="0"/>
-    <col min="29" max="29" width="9.10" hidden="true" style="0"/>
-    <col min="30" max="30" width="9.10" hidden="true" style="0"/>
-    <col min="31" max="31" width="9.10" hidden="true" style="0"/>
-    <col min="32" max="32" width="9.10" hidden="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -4762,20 +4475,9 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
@@ -4788,20 +4490,17 @@
         <f>SUM(AF6:AF35)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="45" t="str">
+      <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
@@ -4810,18 +4509,6 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
@@ -4834,21 +4521,10 @@
         <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="47" t="str">
+      <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
@@ -4860,41 +4536,39 @@
       <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -4951,7 +4625,7 @@
         <f>P5</f>
         <v>verplichte SE-domeinen</v>
       </c>
-      <c r="AF5" s="36" t="s">
+      <c r="AF5" s="41" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4966,32 +4640,30 @@
         <v>385</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="49">
+      <c r="G6" s="27">
         <v>1</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="45">
         <v>2</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="55">
+      <c r="K6" s="30"/>
+      <c r="L6" s="45">
         <v>50</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="52"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5064,32 +4736,30 @@
         <v>386</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="49">
+      <c r="G7" s="27">
         <v>1</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="45">
         <v>2</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="55">
+      <c r="K7" s="30"/>
+      <c r="L7" s="45">
         <v>50</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="52"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5162,32 +4832,30 @@
         <v>387</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="49">
+      <c r="G8" s="27">
         <v>2</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="45">
         <v>1</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="55">
+      <c r="K8" s="30"/>
+      <c r="L8" s="45">
         <v>50</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="52"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5261,32 +4929,30 @@
         <v>388</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="49">
+      <c r="G9" s="27">
         <v>2</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="45">
         <v>3</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="55">
+      <c r="K9" s="30"/>
+      <c r="L9" s="45">
         <v>100</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="52"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5354,38 +5020,36 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44346.428877315</v>
+        <v>44364.591736111</v>
       </c>
       <c r="D10" s="2">
         <v>389</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="49">
+      <c r="G10" s="27">
         <v>3</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="45">
         <v>3</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="55">
+      <c r="K10" s="30"/>
+      <c r="L10" s="45">
         <v>100</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="52"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5459,32 +5123,30 @@
         <v>390</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="49">
+      <c r="G11" s="27">
         <v>4</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="45">
         <v>3</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="55">
+      <c r="K11" s="30"/>
+      <c r="L11" s="45">
         <v>100</v>
       </c>
-      <c r="M11" s="49" t="s">
+      <c r="M11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="52"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5554,18 +5216,6 @@
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -5595,21 +5245,16 @@
       <c r="D13" s="2">
         <v>292</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="50" t="str">
+      <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -5633,20 +5278,15 @@
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -5670,18 +5310,6 @@
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -5702,21 +5330,10 @@
         <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="47" t="str">
+      <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -5736,41 +5353,39 @@
       <c r="D17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -5791,32 +5406,30 @@
         <v>795</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="23">
+      <c r="G18" s="27">
         <v>1</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="45">
         <v>2</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="40">
+      <c r="K18" s="30"/>
+      <c r="L18" s="45">
         <v>100</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="41"/>
-      <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="52"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5883,36 +5496,34 @@
         <v>796</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="23">
+      <c r="G19" s="27">
         <v>2</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="45">
         <v>2</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="40">
+      <c r="K19" s="30"/>
+      <c r="L19" s="45">
         <v>100</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="46">
         <v>2</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="28" t="s">
+      <c r="P19" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="Q19" s="52"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -5979,36 +5590,34 @@
         <v>797</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="23">
+      <c r="G20" s="27">
         <v>3</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="45">
         <v>1</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="40">
+      <c r="K20" s="30"/>
+      <c r="L20" s="45">
         <v>100</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="46">
         <v>2</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="28" t="s">
+      <c r="P20" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="Q20" s="52"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6075,36 +5684,34 @@
         <v>798</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="23">
+      <c r="G21" s="27">
         <v>4</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="45">
         <v>2</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="40">
+      <c r="K21" s="30"/>
+      <c r="L21" s="45">
         <v>100</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="46">
         <v>1</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="28" t="s">
+      <c r="P21" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="Q21" s="52"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6171,30 +5778,28 @@
         <v>799</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="23">
+      <c r="G22" s="27">
         <v>2</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="45">
         <v>2</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="23" t="s">
+      <c r="K22" s="30"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="52"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6261,34 +5866,32 @@
         <v>800</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="23">
+      <c r="G23" s="27">
         <v>4</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="45">
         <v>1</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="23" t="s">
+      <c r="K23" s="30"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="46">
         <v>1</v>
       </c>
-      <c r="O23" s="27" t="s">
+      <c r="O23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="28" t="s">
+      <c r="P23" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="52"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6351,18 +5954,6 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="42"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6385,21 +5976,16 @@
       <c r="D25" s="2">
         <v>293</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="50" t="str">
+      <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -6416,18 +6002,13 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="42"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="52"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6444,18 +6025,6 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="42"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6476,21 +6045,10 @@
         <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="47" t="str">
+      <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -6510,41 +6068,39 @@
       <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="48" t="s">
+      <c r="N29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P29" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -6563,26 +6119,24 @@
     <row r="30" spans="1:32" customHeight="1" ht="72">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="52"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="46"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6647,26 +6201,24 @@
     <row r="31" spans="1:32" customHeight="1" ht="72">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="58"/>
-      <c r="O31" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="52"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="46"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6731,26 +6283,24 @@
     <row r="32" spans="1:32" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="52"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="46"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6815,26 +6365,24 @@
     <row r="33" spans="1:32" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="57"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="58"/>
-      <c r="O33" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="52"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="46"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6899,26 +6447,24 @@
     <row r="34" spans="1:32" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="57"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="58"/>
-      <c r="O34" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="52"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="46"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -6983,26 +6529,24 @@
     <row r="35" spans="1:32" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="57"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="58"/>
-      <c r="O35" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="52"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="46"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7063,20 +6607,6 @@
         <f>SUM(R35:AE35)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
-      <c r="F36" s="42"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="9" t="s">
@@ -7085,38 +6615,28 @@
       <c r="D37" s="2">
         <v>294</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="50" t="str">
+      <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="F38" s="42"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7273,17 +6793,17 @@
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P38" sqref="P38"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="37"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="42"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
     <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
@@ -7295,21 +6815,6 @@
     <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
     <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
     <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-    <col min="18" max="18" width="9.10" hidden="true" style="0"/>
-    <col min="19" max="19" width="9.10" hidden="true" style="0"/>
-    <col min="20" max="20" width="9.10" hidden="true" style="0"/>
-    <col min="21" max="21" width="9.10" hidden="true" style="0"/>
-    <col min="22" max="22" width="9.10" hidden="true" style="0"/>
-    <col min="23" max="23" width="9.10" hidden="true" style="0"/>
-    <col min="24" max="24" width="9.10" hidden="true" style="0"/>
-    <col min="25" max="25" width="9.10" hidden="true" style="0"/>
-    <col min="26" max="26" width="9.10" hidden="true" style="0"/>
-    <col min="27" max="27" width="9.10" hidden="true" style="0"/>
-    <col min="28" max="28" width="9.10" hidden="true" style="0"/>
-    <col min="29" max="29" width="9.10" hidden="true" style="0"/>
-    <col min="30" max="30" width="9.10" hidden="true" style="0"/>
-    <col min="31" max="31" width="9.10" hidden="true" style="0"/>
-    <col min="32" max="32" width="9.10" hidden="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -7318,20 +6823,9 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
@@ -7344,20 +6838,17 @@
         <f>SUM(AF6:AF35)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="45" t="str">
+      <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
@@ -7366,18 +6857,6 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
@@ -7390,21 +6869,10 @@
         <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="47" t="str">
+      <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
@@ -7416,41 +6884,39 @@
       <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -7507,7 +6973,7 @@
         <f>P5</f>
         <v>verplichte SE-domeinen</v>
       </c>
-      <c r="AF5" s="36" t="s">
+      <c r="AF5" s="41" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7520,26 +6986,24 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="52"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="46"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7610,26 +7074,24 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="52"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="46"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7700,26 +7162,24 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="52"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="46"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7791,26 +7251,24 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="52"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="46"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7878,30 +7336,28 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44346.428877315</v>
+        <v>44364.591736111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="52"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="46"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -7973,26 +7429,24 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="52"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="46"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8062,18 +7516,6 @@
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -8103,21 +7545,16 @@
       <c r="D13" s="2">
         <v>295</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="50" t="str">
+      <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -8141,18 +7578,13 @@
         <f>B15+B11-B7</f>
         <v>5</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -8176,18 +7608,6 @@
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -8208,21 +7628,10 @@
         <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="47" t="str">
+      <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -8242,41 +7651,39 @@
       <c r="D17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -8297,32 +7704,30 @@
         <v>391</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="49">
+      <c r="G18" s="27">
         <v>1</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="45">
         <v>2</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="55">
+      <c r="K18" s="30"/>
+      <c r="L18" s="45">
         <v>100</v>
       </c>
-      <c r="M18" s="49" t="s">
+      <c r="M18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="52"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8389,36 +7794,34 @@
         <v>392</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="49">
+      <c r="G19" s="27">
         <v>2</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="45">
         <v>2</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="55">
+      <c r="K19" s="30"/>
+      <c r="L19" s="45">
         <v>100</v>
       </c>
-      <c r="M19" s="49" t="s">
+      <c r="M19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="46">
         <v>2</v>
       </c>
-      <c r="O19" s="60" t="s">
+      <c r="O19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="61" t="s">
+      <c r="P19" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="Q19" s="52"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8485,36 +7888,34 @@
         <v>393</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="49">
+      <c r="G20" s="27">
         <v>3</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="45">
         <v>1</v>
       </c>
-      <c r="J20" s="56" t="s">
+      <c r="J20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="55">
+      <c r="K20" s="30"/>
+      <c r="L20" s="45">
         <v>100</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="58">
+      <c r="N20" s="46">
         <v>2</v>
       </c>
-      <c r="O20" s="60" t="s">
+      <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="61" t="s">
+      <c r="P20" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="Q20" s="52"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8581,36 +7982,34 @@
         <v>394</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="49">
+      <c r="G21" s="27">
         <v>4</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="45">
         <v>2</v>
       </c>
-      <c r="J21" s="56" t="s">
+      <c r="J21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="55">
+      <c r="K21" s="30"/>
+      <c r="L21" s="45">
         <v>100</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="M21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="46">
         <v>1</v>
       </c>
-      <c r="O21" s="60" t="s">
+      <c r="O21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="61" t="s">
+      <c r="P21" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="Q21" s="52"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8677,30 +8076,28 @@
         <v>395</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="49">
+      <c r="G22" s="27">
         <v>2</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="45">
         <v>2</v>
       </c>
-      <c r="J22" s="56" t="s">
+      <c r="J22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="49" t="s">
+      <c r="K22" s="30"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="52"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8767,34 +8164,32 @@
         <v>396</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="49">
+      <c r="G23" s="27">
         <v>4</v>
       </c>
-      <c r="H23" s="54" t="s">
+      <c r="H23" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="45">
         <v>1</v>
       </c>
-      <c r="J23" s="56" t="s">
+      <c r="J23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="49" t="s">
+      <c r="K23" s="30"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="46">
         <v>1</v>
       </c>
-      <c r="O23" s="60" t="s">
+      <c r="O23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="61" t="s">
+      <c r="P23" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="Q23" s="52"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -8857,18 +8252,6 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="42"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -8891,21 +8274,16 @@
       <c r="D25" s="2">
         <v>296</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="50" t="str">
+      <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -8922,20 +8300,15 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="42"/>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -8952,18 +8325,6 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="42"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -8984,21 +8345,10 @@
         <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="47" t="str">
+      <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -9018,41 +8368,39 @@
       <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="48" t="s">
+      <c r="N29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P29" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -9073,34 +8421,32 @@
         <v>792</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="23">
+      <c r="G30" s="27">
         <v>1</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="25" t="s">
+      <c r="I30" s="45"/>
+      <c r="J30" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="40">
+      <c r="K30" s="30"/>
+      <c r="L30" s="45">
         <v>100</v>
       </c>
-      <c r="M30" s="23" t="s">
+      <c r="M30" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="46">
         <v>4</v>
       </c>
-      <c r="O30" s="27" t="s">
+      <c r="O30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P30" s="28" t="s">
+      <c r="P30" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="Q30" s="52"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9167,34 +8513,32 @@
         <v>793</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="23">
+      <c r="G31" s="27">
         <v>2</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="40"/>
-      <c r="J31" s="25" t="s">
+      <c r="I31" s="45"/>
+      <c r="J31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="40">
+      <c r="K31" s="30"/>
+      <c r="L31" s="45">
         <v>100</v>
       </c>
-      <c r="M31" s="23" t="s">
+      <c r="M31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="46">
         <v>4</v>
       </c>
-      <c r="O31" s="27" t="s">
+      <c r="O31" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="28" t="s">
+      <c r="P31" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Q31" s="52"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9261,34 +8605,32 @@
         <v>794</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="23">
+      <c r="G32" s="27">
         <v>3</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="25" t="s">
+      <c r="I32" s="45"/>
+      <c r="J32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="26"/>
-      <c r="L32" s="40">
+      <c r="K32" s="30"/>
+      <c r="L32" s="45">
         <v>100</v>
       </c>
-      <c r="M32" s="23" t="s">
+      <c r="M32" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="46">
         <v>4</v>
       </c>
-      <c r="O32" s="27" t="s">
+      <c r="O32" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="28" t="s">
+      <c r="P32" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Q32" s="52"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9353,26 +8695,24 @@
     <row r="33" spans="1:32" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="41"/>
-      <c r="O33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="52"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="46"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9437,26 +8777,24 @@
     <row r="34" spans="1:32" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="41"/>
-      <c r="O34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="52"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="46"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9521,26 +8859,24 @@
     <row r="35" spans="1:32" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="26"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="41"/>
-      <c r="O35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="52"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="46"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9601,20 +8937,6 @@
         <f>SUM(R35:AE35)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
-      <c r="F36" s="42"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="9" t="s">
@@ -9623,38 +8945,28 @@
       <c r="D37" s="2">
         <v>297</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="50" t="str">
+      <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2021 - 2022)</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="F38" s="42"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="52"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9811,17 +9123,17 @@
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="37"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="42"/>
     <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
     <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
     <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
@@ -9833,21 +9145,6 @@
     <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
     <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
     <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-    <col min="18" max="18" width="9.10" hidden="true" style="0"/>
-    <col min="19" max="19" width="9.10" hidden="true" style="0"/>
-    <col min="20" max="20" width="9.10" hidden="true" style="0"/>
-    <col min="21" max="21" width="9.10" hidden="true" style="0"/>
-    <col min="22" max="22" width="9.10" hidden="true" style="0"/>
-    <col min="23" max="23" width="9.10" hidden="true" style="0"/>
-    <col min="24" max="24" width="9.10" hidden="true" style="0"/>
-    <col min="25" max="25" width="9.10" hidden="true" style="0"/>
-    <col min="26" max="26" width="9.10" hidden="true" style="0"/>
-    <col min="27" max="27" width="9.10" hidden="true" style="0"/>
-    <col min="28" max="28" width="9.10" hidden="true" style="0"/>
-    <col min="29" max="29" width="9.10" hidden="true" style="0"/>
-    <col min="30" max="30" width="9.10" hidden="true" style="0"/>
-    <col min="31" max="31" width="9.10" hidden="true" style="0"/>
-    <col min="32" max="32" width="9.10" hidden="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -9856,20 +9153,9 @@
       <c r="C1" s="15"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:32" customHeight="1" ht="48">
       <c r="A2" s="9" t="s">
@@ -9882,20 +9168,17 @@
         <f>SUM(AF6:AF35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="45" t="str">
+      <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>Dit is het programma van de huidige A6 (cohort 2018 - 2021)</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="9" t="s">
@@ -9904,18 +9187,6 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:32" customHeight="1" ht="30">
       <c r="A4" s="9" t="s">
@@ -9928,21 +9199,10 @@
         <v>47</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="47" t="str">
+      <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
         <v>WC leerlaag A4 (schooljaar 2018 - 2019)</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
@@ -9954,41 +9214,39 @@
       <c r="D5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="52"/>
       <c r="R5" s="7" t="str">
         <f>G5</f>
         <v>periode</v>
@@ -10045,7 +9303,7 @@
         <f>P5</f>
         <v>verplichte SE-domeinen</v>
       </c>
-      <c r="AF5" s="36" t="s">
+      <c r="AF5" s="41" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10058,26 +9316,24 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="52"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="46"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10148,26 +9404,24 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="52"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="46"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10238,26 +9492,24 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="52"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="46"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10329,26 +9581,24 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="52"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="46"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10416,30 +9666,28 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44346.428877315</v>
+        <v>44364.591736111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="52"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="46"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10511,26 +9759,24 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="52"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="46"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10600,18 +9846,6 @@
         <f>CONCATENATE(B11," - ",B11+1)</f>
         <v>2020 - 2021</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -10641,21 +9875,16 @@
       <c r="D13" s="2">
         <v>298</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="50" t="str">
+      <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A4 (schooljaar 2018 - 2019)</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -10679,18 +9908,13 @@
         <f>B15+B11-B7</f>
         <v>6</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -10714,18 +9938,6 @@
         <f>IF(B6="M",3,4)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -10746,21 +9958,10 @@
         <v>47</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="47" t="str">
+      <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
         <v>WC leerlaag A5 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -10780,41 +9981,39 @@
       <c r="D17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q17" s="52"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -10833,26 +10032,24 @@
     <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="52"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="46"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -10917,26 +10114,24 @@
     <row r="19" spans="1:32" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="58"/>
-      <c r="O19" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="52"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="46"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11001,26 +10196,24 @@
     <row r="20" spans="1:32" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="52"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="46"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11085,26 +10278,24 @@
     <row r="21" spans="1:32" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="58"/>
-      <c r="O21" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="52"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="46"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11169,26 +10360,24 @@
     <row r="22" spans="1:32" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="52"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="46"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11253,26 +10442,24 @@
     <row r="23" spans="1:32" customHeight="1" ht="72">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="52"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="46"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11335,18 +10522,6 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="F24" s="42"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -11369,21 +10544,16 @@
       <c r="D25" s="2">
         <v>299</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="50" t="str">
+      <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A5 (schooljaar 2019 - 2020)</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -11400,18 +10570,13 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="F26" s="42"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -11428,18 +10593,6 @@
       <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="F27" s="42"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -11460,21 +10613,10 @@
         <v>47</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="47" t="str">
+      <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
         <v>WC leerlaag A6 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -11494,41 +10636,39 @@
       <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="48" t="s">
+      <c r="N29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P29" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="52"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -11549,34 +10689,32 @@
         <v>397</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="49">
+      <c r="G30" s="27">
         <v>1</v>
       </c>
-      <c r="H30" s="54" t="s">
+      <c r="H30" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56" t="s">
+      <c r="I30" s="45"/>
+      <c r="J30" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="55">
+      <c r="K30" s="30"/>
+      <c r="L30" s="45">
         <v>100</v>
       </c>
-      <c r="M30" s="49" t="s">
+      <c r="M30" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="58">
+      <c r="N30" s="46">
         <v>4</v>
       </c>
-      <c r="O30" s="60" t="s">
+      <c r="O30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P30" s="61" t="s">
+      <c r="P30" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="Q30" s="52"/>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11643,34 +10781,32 @@
         <v>398</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="49">
+      <c r="G31" s="27">
         <v>2</v>
       </c>
-      <c r="H31" s="54" t="s">
+      <c r="H31" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56" t="s">
+      <c r="I31" s="45"/>
+      <c r="J31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="55">
+      <c r="K31" s="30"/>
+      <c r="L31" s="45">
         <v>100</v>
       </c>
-      <c r="M31" s="49" t="s">
+      <c r="M31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="58">
+      <c r="N31" s="46">
         <v>4</v>
       </c>
-      <c r="O31" s="60" t="s">
+      <c r="O31" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="61" t="s">
+      <c r="P31" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Q31" s="52"/>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11737,34 +10873,32 @@
         <v>399</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="49">
+      <c r="G32" s="27">
         <v>3</v>
       </c>
-      <c r="H32" s="54" t="s">
+      <c r="H32" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56" t="s">
+      <c r="I32" s="45"/>
+      <c r="J32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="55">
+      <c r="K32" s="30"/>
+      <c r="L32" s="45">
         <v>100</v>
       </c>
-      <c r="M32" s="49" t="s">
+      <c r="M32" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="58">
+      <c r="N32" s="46">
         <v>4</v>
       </c>
-      <c r="O32" s="60" t="s">
+      <c r="O32" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="61" t="s">
+      <c r="P32" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Q32" s="52"/>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11829,26 +10963,24 @@
     <row r="33" spans="1:32" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="57"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="58"/>
-      <c r="O33" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="52"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="46"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11913,26 +11045,24 @@
     <row r="34" spans="1:32" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="57"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="58"/>
-      <c r="O34" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="52"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="46"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -11997,26 +11127,24 @@
     <row r="35" spans="1:32" customHeight="1" ht="72">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="57"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="58"/>
-      <c r="O35" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="52"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="46"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
       <c r="R35" s="7">
         <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -12077,20 +11205,6 @@
         <f>SUM(R35:AE35)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
-      <c r="F36" s="42"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:32">
       <c r="C37" s="9" t="s">
@@ -12099,40 +11213,30 @@
       <c r="D37" s="2">
         <v>300</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="50" t="str">
+      <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WC leerlaag A6 (schooljaar 2020 - 2021)</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="F38" s="42"/>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WC PTA en onderwijsprogramma.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -883,6 +883,9 @@
   </si>
   <si>
     <t>Hoofdstuk 2 (Verbanden) + Vaardigheden</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>startJaar</t>
@@ -2375,7 +2378,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2441,7 +2444,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2454,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2471,7 +2474,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2537,7 +2540,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>213</v>
@@ -2550,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -2567,7 +2570,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2633,7 +2636,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2647,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2664,7 +2667,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2730,11 +2733,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541018519</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2">
         <v>805</v>
@@ -2744,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -2761,7 +2764,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2827,7 +2830,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2841,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -2858,7 +2861,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -2924,7 +2927,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2947,7 +2950,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3016,7 +3019,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4661,7 +4664,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4727,7 +4730,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4740,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4757,7 +4760,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4823,7 +4826,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>118</v>
@@ -4836,7 +4839,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4853,7 +4856,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4919,7 +4922,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4933,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -4950,7 +4953,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -5016,11 +5019,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541018519</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2">
         <v>389</v>
@@ -5030,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -5047,7 +5050,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5113,7 +5116,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5127,7 +5130,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -5144,7 +5147,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5210,7 +5213,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5233,7 +5236,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5272,14 +5275,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5304,7 +5307,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5410,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -5427,7 +5430,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -5500,7 +5503,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -5519,10 +5522,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5594,7 +5597,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -5613,10 +5616,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -5688,7 +5691,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -5707,10 +5710,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -5782,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -5797,7 +5800,7 @@
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -5870,7 +5873,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -5887,10 +5890,10 @@
         <v>1</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -7067,7 +7070,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7155,7 +7158,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>119</v>
@@ -7243,7 +7246,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7332,11 +7335,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541018519</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7421,7 +7424,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7510,7 +7513,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7533,7 +7536,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7572,7 +7575,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7602,7 +7605,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7708,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -7725,7 +7728,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -7798,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -7817,10 +7820,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7892,7 +7895,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -7911,10 +7914,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -7986,7 +7989,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -8005,10 +8008,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8080,7 +8083,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -8095,7 +8098,7 @@
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -8168,7 +8171,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -8185,10 +8188,10 @@
         <v>1</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -8301,7 +8304,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -8425,7 +8428,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -8442,10 +8445,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -8517,7 +8520,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -8534,10 +8537,10 @@
         <v>6</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -8609,7 +8612,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -8626,10 +8629,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -9397,7 +9400,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -9485,7 +9488,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>120</v>
@@ -9573,7 +9576,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9662,11 +9665,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541018519</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9840,7 +9843,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9863,7 +9866,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9902,7 +9905,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9932,7 +9935,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -10693,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -10710,10 +10713,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -10785,7 +10788,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -10802,10 +10805,10 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -10877,7 +10880,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -10894,10 +10897,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -11226,7 +11229,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
